--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32072035.51</v>
+        <v>90583503.06999999</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1457819.8</v>
+        <v>2744954.64</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3910802.19</v>
+        <v>3721226.76</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2245424.23</v>
+        <v>2248139.28</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4554524.48</v>
+        <v>4559841.11</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2184053.37</v>
+        <v>1563807.83</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1234210.83</v>
+        <v>1223306.49</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2674728.77</v>
+        <v>2653657.28</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1312824.09</v>
+        <v>1215745.69</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540746.25</v>
+        <v>2533862.98</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1218756.99</v>
+        <v>1219742.56</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>927737.78</v>
+        <v>924617.6899999999</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>915993.09</v>
+        <v>914285.85</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962973.22</v>
+        <v>968048.59</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>937984.92</v>
+        <v>940413.2</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1412677.7</v>
+        <v>1410705.27</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>411851.89</v>
+        <v>467093.29</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>449212.73</v>
+        <v>447747.81</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30029.81</v>
+        <v>29285.52</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2986582.06</v>
+        <v>4116906.22</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144641.11</v>
+        <v>144205.14</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>572504.47</v>
+        <v>572647.04</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38527.53</v>
+        <v>38380.25</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,117 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>405248</v>
+        <v>403808.19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>280338.95</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>156706.56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>250787.62</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5589039.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4878402.58</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>479435.65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>24925391.9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3906706.7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10015.06</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>38380.25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>17750823.96</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,35 +439,49 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90583503.06999999</v>
+        <v>4116906.22</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4113761.49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2744954.64</v>
+        <v>3721226.76</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3706367.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3721226.76</v>
+        <v>447747.81</v>
+      </c>
+      <c r="C4" t="n">
+        <v>474972.72</v>
       </c>
     </row>
     <row r="5">
@@ -479,6 +493,9 @@
       <c r="B5" t="n">
         <v>2248139.28</v>
       </c>
+      <c r="C5" t="n">
+        <v>2243785.92</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -489,75 +506,99 @@
       <c r="B6" t="n">
         <v>4559841.11</v>
       </c>
+      <c r="C6" t="n">
+        <v>4547640.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1563807.83</v>
+        <v>144205.14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>143994.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1223306.49</v>
+        <v>1563807.83</v>
+      </c>
+      <c r="C8" t="n">
+        <v>488559.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2653657.28</v>
+        <v>250787.62</v>
+      </c>
+      <c r="C9" t="n">
+        <v>250911.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1215745.69</v>
+        <v>5589039.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5591096.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2533862.98</v>
+        <v>4878402.58</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4893135.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1219742.56</v>
+        <v>280338.95</v>
+      </c>
+      <c r="C12" t="n">
+        <v>280180.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924617.6899999999</v>
+        <v>156706.56</v>
+      </c>
+      <c r="C13" t="n">
+        <v>156779.61</v>
       </c>
     </row>
     <row r="14">
@@ -569,6 +610,9 @@
       <c r="B14" t="n">
         <v>914285.85</v>
       </c>
+      <c r="C14" t="n">
+        <v>986827.87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -579,85 +623,110 @@
       <c r="B15" t="n">
         <v>968048.59</v>
       </c>
+      <c r="C15" t="n">
+        <v>958088.42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>940413.2</v>
+        <v>1223306.49</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1238457.64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1410705.27</v>
+        <v>2653657.28</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2689607.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>467093.29</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>34978162.49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>447747.81</v>
+        <v>572647.04</v>
+      </c>
+      <c r="C19" t="n">
+        <v>571901.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29285.52</v>
+        <v>10015.06</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10033.82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4116906.22</v>
+        <v>1215745.69</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1110944.81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144205.14</v>
+        <v>2533862.98</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2532721.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>572647.04</v>
+        <v>467093.29</v>
+      </c>
+      <c r="C23" t="n">
+        <v>467361.57</v>
       </c>
     </row>
     <row r="24">
@@ -669,125 +738,177 @@
       <c r="B24" t="n">
         <v>38380.25</v>
       </c>
+      <c r="C24" t="n">
+        <v>53505.18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>403808.19</v>
+        <v>38380.25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>53505.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>280338.95</v>
+        <v>479435.65</v>
+      </c>
+      <c r="C26" t="n">
+        <v>527821.1800000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>156706.56</v>
+        <v>403808.19</v>
+      </c>
+      <c r="C27" t="n">
+        <v>404728.96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>250787.62</v>
+        <v>940413.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>936650.5600000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5589039.8</v>
+        <v>1410705.27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1411757.85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4878402.58</v>
+        <v>29285.52</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29979.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>479435.65</v>
+        <v>1219742.56</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1214413.21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>24925391.9</v>
+        <v>924617.6899999999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>925134.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3906706.7</v>
+        <v>17750823.96</v>
+      </c>
+      <c r="C33" t="n">
+        <v>17717880.06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10015.06</v>
+        <v>24925391.9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>24944544.43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>38380.25</v>
+        <v>3906706.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4062543.59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17750823.96</v>
+        <v>2744954.64</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3668169.31</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>90583503.06999999</v>
+      </c>
+      <c r="C37" t="n">
+        <v>124717756.52</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,355 +439,465 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124664251.34</v>
+        <v>4113761.49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4114314.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3777704.59</v>
+        <v>3706367.68</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3723756.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4113761.49</v>
+        <v>474972.72</v>
+      </c>
+      <c r="C4" t="n">
+        <v>472594.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3706367.68</v>
+        <v>2243785.92</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2249629.99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>474972.72</v>
+        <v>4547640.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4562501.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2243785.92</v>
+        <v>143994.05</v>
+      </c>
+      <c r="C7" t="n">
+        <v>143868.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4547640.7</v>
+        <v>488559.75</v>
+      </c>
+      <c r="C8" t="n">
+        <v>482158.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>143994.05</v>
+        <v>280180.48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>282838.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>488559.75</v>
+        <v>156779.61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>156583.47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280180.48</v>
+        <v>250911.45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>250949.93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>156779.61</v>
+        <v>5591096.83</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5590688.21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>250911.45</v>
+        <v>4893135.39</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4897975.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5591096.83</v>
+        <v>986827.87</v>
+      </c>
+      <c r="C14" t="n">
+        <v>984282.63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4893135.39</v>
+        <v>958088.42</v>
+      </c>
+      <c r="C15" t="n">
+        <v>964510.55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>986827.87</v>
+        <v>1238457.64</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1232401.18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>958088.42</v>
+        <v>2689607.22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2746566.57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1238457.64</v>
+        <v>34978162.49</v>
+      </c>
+      <c r="C18" t="n">
+        <v>35247486.51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2689607.22</v>
+        <v>571901.09</v>
+      </c>
+      <c r="C19" t="n">
+        <v>572507.54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34978162.49</v>
+        <v>10033.82</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10218.84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>571901.09</v>
+        <v>1110944.81</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1114191.59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10033.82</v>
+        <v>2532721.25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2532858.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1110944.81</v>
+        <v>467361.57</v>
+      </c>
+      <c r="C23" t="n">
+        <v>488019.84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2532721.25</v>
+        <v>53505.18</v>
+      </c>
+      <c r="C24" t="n">
+        <v>53562.38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>467361.57</v>
+        <v>527821.1800000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>577488.4300000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>53505.18</v>
+        <v>404728.96</v>
+      </c>
+      <c r="C26" t="n">
+        <v>405310.49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>527821.1800000001</v>
+        <v>936650.5600000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>940287.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>404728.96</v>
+        <v>1411757.85</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1407218.71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>936650.5600000001</v>
+        <v>29979.9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>29113.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1411757.85</v>
+        <v>1214413.21</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1216155.65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29979.9</v>
+        <v>925134.17</v>
+      </c>
+      <c r="C31" t="n">
+        <v>925542.4399999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1214413.21</v>
+        <v>17717880.06</v>
+      </c>
+      <c r="C32" t="n">
+        <v>17725718.49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>925134.17</v>
+        <v>24944544.43</v>
+      </c>
+      <c r="C33" t="n">
+        <v>24951084.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17717880.06</v>
+        <v>4062543.59</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4051087.37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24944544.43</v>
+        <v>3777704.59</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3791014.32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4062543.59</v>
+        <v>124664251.34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>125103472.65</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -545,9 +545,7 @@
       <c r="B9" t="n">
         <v>280180.48</v>
       </c>
-      <c r="C9" t="n">
-        <v>282838.94</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -558,9 +556,7 @@
       <c r="B10" t="n">
         <v>156779.61</v>
       </c>
-      <c r="C10" t="n">
-        <v>156583.47</v>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -571,9 +567,7 @@
       <c r="B11" t="n">
         <v>250911.45</v>
       </c>
-      <c r="C11" t="n">
-        <v>250949.93</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -584,9 +578,7 @@
       <c r="B12" t="n">
         <v>5591096.83</v>
       </c>
-      <c r="C12" t="n">
-        <v>5590688.21</v>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -597,9 +589,7 @@
       <c r="B13" t="n">
         <v>4893135.39</v>
       </c>
-      <c r="C13" t="n">
-        <v>4897975.6</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -610,9 +600,7 @@
       <c r="B14" t="n">
         <v>986827.87</v>
       </c>
-      <c r="C14" t="n">
-        <v>984282.63</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -623,9 +611,7 @@
       <c r="B15" t="n">
         <v>958088.42</v>
       </c>
-      <c r="C15" t="n">
-        <v>964510.55</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -636,9 +622,7 @@
       <c r="B16" t="n">
         <v>1238457.64</v>
       </c>
-      <c r="C16" t="n">
-        <v>1232401.18</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -779,9 +763,7 @@
       <c r="B27" t="n">
         <v>936650.5600000001</v>
       </c>
-      <c r="C27" t="n">
-        <v>940287.5</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -884,7 +866,7 @@
         <v>3777704.59</v>
       </c>
       <c r="C35" t="n">
-        <v>3791014.32</v>
+        <v>4575123.11</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +879,7 @@
         <v>124664251.34</v>
       </c>
       <c r="C36" t="n">
-        <v>125103472.65</v>
+        <v>109802954.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4113761.49</v>
+        <v>2828996.83</v>
       </c>
       <c r="C2" t="n">
-        <v>4114314.89</v>
+        <v>2827378.98</v>
       </c>
       <c r="D2" t="n">
-        <v>4576555.3</v>
+        <v>2724474.47</v>
       </c>
       <c r="E2" t="n">
-        <v>4579372.39</v>
+        <v>2598371.43</v>
       </c>
       <c r="F2" t="n">
-        <v>4576936.11</v>
+        <v>2599878.33</v>
       </c>
       <c r="G2" t="n">
-        <v>4575866.19</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4404460.94</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3888137.83</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3463999.98</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3462975.17</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2825944.54</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2828996.83</v>
+        <v>2596215.13</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3706367.68</v>
+        <v>3973208.02</v>
       </c>
       <c r="C3" t="n">
-        <v>3723756.54</v>
+        <v>3967812.25</v>
       </c>
       <c r="D3" t="n">
-        <v>3707703.88</v>
+        <v>3822975.45</v>
       </c>
       <c r="E3" t="n">
-        <v>3984406.98</v>
+        <v>3974209.69</v>
       </c>
       <c r="F3" t="n">
-        <v>3990307.17</v>
+        <v>3977134.29</v>
       </c>
       <c r="G3" t="n">
-        <v>3985844.72</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3981206.42</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3975325.98</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3978358.22</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3986081.15</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3710970.77</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3973208.02</v>
+        <v>4174361.56</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>474972.72</v>
+        <v>563453.78</v>
       </c>
       <c r="C4" t="n">
-        <v>472594.6</v>
+        <v>562955.15</v>
       </c>
       <c r="D4" t="n">
-        <v>561024.89</v>
+        <v>540578.28</v>
       </c>
       <c r="E4" t="n">
-        <v>563065.3100000001</v>
+        <v>564191.89</v>
       </c>
       <c r="F4" t="n">
-        <v>564843.35</v>
+        <v>565255.72</v>
       </c>
       <c r="G4" t="n">
-        <v>561767.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>565019.47</v>
-      </c>
-      <c r="I4" t="n">
-        <v>561706.97</v>
-      </c>
-      <c r="J4" t="n">
-        <v>562467.97</v>
-      </c>
-      <c r="K4" t="n">
-        <v>563089.62</v>
-      </c>
-      <c r="L4" t="n">
-        <v>563212.52</v>
-      </c>
-      <c r="M4" t="n">
-        <v>563453.78</v>
+        <v>699170.23</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2243785.92</v>
+        <v>2244799.23</v>
       </c>
       <c r="C5" t="n">
-        <v>2249629.99</v>
+        <v>2244804.15</v>
       </c>
       <c r="D5" t="n">
-        <v>2250267.2</v>
+        <v>2156917.58</v>
       </c>
       <c r="E5" t="n">
-        <v>2249733.25</v>
+        <v>2250522.43</v>
       </c>
       <c r="F5" t="n">
-        <v>2246212.88</v>
+        <v>2243613.92</v>
       </c>
       <c r="G5" t="n">
-        <v>2247653.09</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2249478.79</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2242552.15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2246180.55</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2247383.88</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2248172.81</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2244799.23</v>
+        <v>2245855.43</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4547640.7</v>
+        <v>3909834.46</v>
       </c>
       <c r="C6" t="n">
-        <v>4562501.4</v>
+        <v>3918409.94</v>
       </c>
       <c r="D6" t="n">
-        <v>4547409.31</v>
+        <v>3756954.34</v>
       </c>
       <c r="E6" t="n">
-        <v>4560871.75</v>
+        <v>3909696.64</v>
       </c>
       <c r="F6" t="n">
-        <v>4549282.35</v>
+        <v>3914565.49</v>
       </c>
       <c r="G6" t="n">
-        <v>4561268.23</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4545796.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3914980.98</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3909022.44</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3912139.7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3907403.65</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3909834.46</v>
+        <v>3913045.72</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>143994.05</v>
+        <v>17177.85</v>
       </c>
       <c r="C7" t="n">
-        <v>143868.09</v>
+        <v>17105.08</v>
       </c>
       <c r="D7" t="n">
-        <v>144429.77</v>
+        <v>16463.41</v>
       </c>
       <c r="E7" t="n">
-        <v>143737.51</v>
+        <v>17106.78</v>
       </c>
       <c r="F7" t="n">
-        <v>143175.34</v>
+        <v>17124.77</v>
       </c>
       <c r="G7" t="n">
-        <v>143231.57</v>
-      </c>
-      <c r="H7" t="n">
-        <v>143131.46</v>
-      </c>
-      <c r="I7" t="n">
-        <v>143048.91</v>
-      </c>
-      <c r="J7" t="n">
-        <v>143801.64</v>
-      </c>
-      <c r="K7" t="n">
-        <v>17112.65</v>
-      </c>
-      <c r="L7" t="n">
-        <v>17120.11</v>
-      </c>
-      <c r="M7" t="n">
-        <v>17177.85</v>
+        <v>17180.4</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>488559.75</v>
+        <v>128109.63</v>
       </c>
       <c r="C8" t="n">
-        <v>482158.04</v>
+        <v>132323.62</v>
       </c>
       <c r="D8" t="n">
-        <v>228550.29</v>
+        <v>119848.79</v>
       </c>
       <c r="E8" t="n">
-        <v>137345.36</v>
+        <v>119900.57</v>
       </c>
       <c r="F8" t="n">
-        <v>129626.02</v>
+        <v>122325.59</v>
       </c>
       <c r="G8" t="n">
-        <v>125444</v>
-      </c>
-      <c r="H8" t="n">
-        <v>130294.41</v>
-      </c>
-      <c r="I8" t="n">
-        <v>136569.84</v>
-      </c>
-      <c r="J8" t="n">
-        <v>135695.73</v>
-      </c>
-      <c r="K8" t="n">
-        <v>136519.62</v>
-      </c>
-      <c r="L8" t="n">
-        <v>136292.65</v>
-      </c>
-      <c r="M8" t="n">
-        <v>128109.63</v>
+        <v>118763.61</v>
       </c>
     </row>
     <row r="9">
@@ -803,38 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>280180.48</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>280264.67</v>
+      </c>
+      <c r="C9" t="n">
+        <v>279077.32</v>
+      </c>
       <c r="D9" t="n">
-        <v>279356.59</v>
+        <v>269790.33</v>
       </c>
       <c r="E9" t="n">
-        <v>278843.11</v>
+        <v>279182.64</v>
       </c>
       <c r="F9" t="n">
-        <v>281552.55</v>
+        <v>279551.36</v>
       </c>
       <c r="G9" t="n">
-        <v>279678.97</v>
-      </c>
-      <c r="H9" t="n">
-        <v>282489.52</v>
-      </c>
-      <c r="I9" t="n">
-        <v>281216.87</v>
-      </c>
-      <c r="J9" t="n">
-        <v>281900.86</v>
-      </c>
-      <c r="K9" t="n">
-        <v>279208.73</v>
-      </c>
-      <c r="L9" t="n">
-        <v>279068.06</v>
-      </c>
-      <c r="M9" t="n">
-        <v>280264.67</v>
+        <v>278325.6</v>
       </c>
     </row>
     <row r="10">
@@ -844,38 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156779.61</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>156602.04</v>
+      </c>
+      <c r="C10" t="n">
+        <v>156798.19</v>
+      </c>
       <c r="D10" t="n">
-        <v>156569.59</v>
+        <v>150753.04</v>
       </c>
       <c r="E10" t="n">
-        <v>156673.24</v>
+        <v>156627.43</v>
       </c>
       <c r="F10" t="n">
-        <v>156668.16</v>
+        <v>156580.95</v>
       </c>
       <c r="G10" t="n">
-        <v>156724.72</v>
-      </c>
-      <c r="H10" t="n">
-        <v>156780.84</v>
-      </c>
-      <c r="I10" t="n">
-        <v>156737.36</v>
-      </c>
-      <c r="J10" t="n">
-        <v>156597.67</v>
-      </c>
-      <c r="K10" t="n">
-        <v>156692.97</v>
-      </c>
-      <c r="L10" t="n">
-        <v>156636.38</v>
-      </c>
-      <c r="M10" t="n">
-        <v>156602.04</v>
+        <v>156772.42</v>
       </c>
     </row>
     <row r="11">
@@ -885,38 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>250911.45</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>250898.01</v>
+      </c>
+      <c r="C11" t="n">
+        <v>250795.94</v>
+      </c>
       <c r="D11" t="n">
-        <v>250841.35</v>
+        <v>241111.43</v>
       </c>
       <c r="E11" t="n">
-        <v>250728.77</v>
+        <v>250780.91</v>
       </c>
       <c r="F11" t="n">
-        <v>250926.84</v>
+        <v>250829.9</v>
       </c>
       <c r="G11" t="n">
-        <v>250967.51</v>
-      </c>
-      <c r="H11" t="n">
-        <v>250864.98</v>
-      </c>
-      <c r="I11" t="n">
-        <v>250700.64</v>
-      </c>
-      <c r="J11" t="n">
-        <v>250682.49</v>
-      </c>
-      <c r="K11" t="n">
-        <v>250802.15</v>
-      </c>
-      <c r="L11" t="n">
-        <v>250853.42</v>
-      </c>
-      <c r="M11" t="n">
-        <v>250898.01</v>
+        <v>250750.25</v>
       </c>
     </row>
     <row r="12">
@@ -926,38 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5591096.83</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>5445248.73</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5447914.65</v>
+      </c>
       <c r="D12" t="n">
-        <v>5448365.37</v>
+        <v>5240695.31</v>
       </c>
       <c r="E12" t="n">
-        <v>5449672.05</v>
+        <v>5444096.28</v>
       </c>
       <c r="F12" t="n">
-        <v>5443011.15</v>
+        <v>5444225.88</v>
       </c>
       <c r="G12" t="n">
-        <v>5442534.72</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5449603.21</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5450798.61</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5446289.64</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5448203.74</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5450351.82</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5445248.73</v>
+        <v>5447992.93</v>
       </c>
     </row>
     <row r="13">
@@ -967,965 +747,539 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4893135.39</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>4740478.55</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4753855.86</v>
+      </c>
       <c r="D13" t="n">
-        <v>4821760.27</v>
+        <v>4555069.14</v>
       </c>
       <c r="E13" t="n">
-        <v>4748455.9</v>
+        <v>4752929.32</v>
       </c>
       <c r="F13" t="n">
-        <v>4755443.81</v>
+        <v>4737438.23</v>
       </c>
       <c r="G13" t="n">
-        <v>4746124.25</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4752207.38</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4755914.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4736198.46</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4748918.42</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4754098.57</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4740478.55</v>
+        <v>4734316.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>986827.87</v>
-      </c>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>798198.02</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>344669.93</v>
+      </c>
+      <c r="G14" t="n">
+        <v>342392.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>958088.42</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>1319907.72</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1322571.9</v>
+      </c>
       <c r="D15" t="n">
-        <v>788917.15</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+        <v>1276144.09</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1323842.46</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1433728.84</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1694479.9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1238457.64</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>2788346.13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2727954.26</v>
+      </c>
       <c r="D16" t="n">
-        <v>1224141.02</v>
+        <v>2623880.84</v>
       </c>
       <c r="E16" t="n">
-        <v>1341680.07</v>
+        <v>2681533.26</v>
       </c>
       <c r="F16" t="n">
-        <v>1291280.28</v>
+        <v>2737364.71</v>
       </c>
       <c r="G16" t="n">
-        <v>1306950.62</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1303314.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1397009.92</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1403648.36</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1401550.55</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1387744.29</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1319907.72</v>
+        <v>2881719.69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2689607.22</v>
+        <v>37970488.44</v>
       </c>
       <c r="C17" t="n">
-        <v>2746566.57</v>
+        <v>37991295.88</v>
       </c>
       <c r="D17" t="n">
-        <v>2788194.61</v>
+        <v>36570383.25</v>
       </c>
       <c r="E17" t="n">
-        <v>2792287.68</v>
+        <v>37999422.18</v>
       </c>
       <c r="F17" t="n">
-        <v>2791049.78</v>
+        <v>38008363.74</v>
       </c>
       <c r="G17" t="n">
-        <v>2785384.15</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2785968.66</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2778975.33</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2789632.35</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2779672.82</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2786051.18</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2788346.13</v>
+        <v>37997021.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34978162.49</v>
+        <v>578677.61</v>
       </c>
       <c r="C18" t="n">
-        <v>35247486.51</v>
+        <v>577242.4</v>
       </c>
       <c r="D18" t="n">
-        <v>35249384.38</v>
+        <v>555968.61</v>
       </c>
       <c r="E18" t="n">
-        <v>35241934</v>
+        <v>578561</v>
       </c>
       <c r="F18" t="n">
-        <v>36268616.48</v>
+        <v>576955.0600000001</v>
       </c>
       <c r="G18" t="n">
-        <v>36255393.85</v>
-      </c>
-      <c r="H18" t="n">
-        <v>36241319.01</v>
-      </c>
-      <c r="I18" t="n">
-        <v>36237809.81</v>
-      </c>
-      <c r="J18" t="n">
-        <v>36273450.56</v>
-      </c>
-      <c r="K18" t="n">
-        <v>38023404.26</v>
-      </c>
-      <c r="L18" t="n">
-        <v>38025630.31</v>
-      </c>
-      <c r="M18" t="n">
-        <v>37970488.44</v>
+        <v>577141.13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571901.09</v>
+        <v>10194.9</v>
       </c>
       <c r="C19" t="n">
-        <v>572507.54</v>
+        <v>10446</v>
       </c>
       <c r="D19" t="n">
-        <v>503173.52</v>
+        <v>10094.84</v>
       </c>
       <c r="E19" t="n">
-        <v>504018.71</v>
+        <v>10016.66</v>
       </c>
       <c r="F19" t="n">
-        <v>503778.59</v>
+        <v>10418.61</v>
       </c>
       <c r="G19" t="n">
-        <v>503108.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>503076.66</v>
-      </c>
-      <c r="I19" t="n">
-        <v>578936.66</v>
-      </c>
-      <c r="J19" t="n">
-        <v>578507.16</v>
-      </c>
-      <c r="K19" t="n">
-        <v>578189.21</v>
-      </c>
-      <c r="L19" t="n">
-        <v>578339.01</v>
-      </c>
-      <c r="M19" t="n">
-        <v>578677.61</v>
+        <v>9948.049999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10033.82</v>
+        <v>814854.75</v>
       </c>
       <c r="C20" t="n">
-        <v>10218.84</v>
+        <v>736735.05</v>
       </c>
       <c r="D20" t="n">
-        <v>10222.47</v>
+        <v>712985.5600000001</v>
       </c>
       <c r="E20" t="n">
-        <v>9973.15</v>
+        <v>689890.61</v>
       </c>
       <c r="F20" t="n">
-        <v>10361.53</v>
+        <v>688745.9300000001</v>
       </c>
       <c r="G20" t="n">
-        <v>10031.78</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10410.74</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10477.52</v>
-      </c>
-      <c r="J20" t="n">
-        <v>10380.89</v>
-      </c>
-      <c r="K20" t="n">
-        <v>10458.56</v>
-      </c>
-      <c r="L20" t="n">
-        <v>10356.34</v>
-      </c>
-      <c r="M20" t="n">
-        <v>10194.9</v>
+        <v>639001.35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1110944.81</v>
+        <v>2173083.17</v>
       </c>
       <c r="C21" t="n">
-        <v>1114191.59</v>
+        <v>2177444.79</v>
       </c>
       <c r="D21" t="n">
-        <v>1115822.33</v>
+        <v>2093857.48</v>
       </c>
       <c r="E21" t="n">
-        <v>1113916.46</v>
+        <v>2176828.49</v>
       </c>
       <c r="F21" t="n">
-        <v>1116191.21</v>
+        <v>2175505.46</v>
       </c>
       <c r="G21" t="n">
-        <v>1117482.94</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1067985.71</v>
-      </c>
-      <c r="I21" t="n">
-        <v>960983.92</v>
-      </c>
-      <c r="J21" t="n">
-        <v>915590.95</v>
-      </c>
-      <c r="K21" t="n">
-        <v>912386.39</v>
-      </c>
-      <c r="L21" t="n">
-        <v>811623.13</v>
-      </c>
-      <c r="M21" t="n">
-        <v>814854.75</v>
+        <v>2173935.29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2532721.25</v>
+        <v>675452.55</v>
       </c>
       <c r="C22" t="n">
-        <v>2532858.42</v>
+        <v>676981.79</v>
       </c>
       <c r="D22" t="n">
-        <v>2234639.69</v>
+        <v>632521.1</v>
       </c>
       <c r="E22" t="n">
-        <v>2230789.12</v>
+        <v>651315.35</v>
       </c>
       <c r="F22" t="n">
-        <v>2236250.23</v>
+        <v>664282.4</v>
       </c>
       <c r="G22" t="n">
-        <v>2236189.03</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2239155.35</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2233492.64</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2232783.41</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2235960.35</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2172240.8</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2173083.17</v>
+        <v>701789.17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467361.57</v>
+        <v>61183.44</v>
       </c>
       <c r="C23" t="n">
-        <v>488019.84</v>
+        <v>61021.1</v>
       </c>
       <c r="D23" t="n">
-        <v>626333.74</v>
+        <v>58698.64</v>
       </c>
       <c r="E23" t="n">
-        <v>656303.49</v>
+        <v>61036.19</v>
       </c>
       <c r="F23" t="n">
-        <v>650267.2</v>
+        <v>61106.5</v>
       </c>
       <c r="G23" t="n">
-        <v>651944.02</v>
-      </c>
-      <c r="H23" t="n">
-        <v>770808.65</v>
-      </c>
-      <c r="I23" t="n">
-        <v>772569.45</v>
-      </c>
-      <c r="J23" t="n">
-        <v>771328.89</v>
-      </c>
-      <c r="K23" t="n">
-        <v>772137.0699999999</v>
-      </c>
-      <c r="L23" t="n">
-        <v>767007.64</v>
-      </c>
-      <c r="M23" t="n">
-        <v>675452.55</v>
+        <v>60935.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>53505.18</v>
+        <v>615600.77</v>
       </c>
       <c r="C24" t="n">
-        <v>53562.38</v>
+        <v>616038.4</v>
       </c>
       <c r="D24" t="n">
-        <v>61008.86</v>
+        <v>591888.73</v>
       </c>
       <c r="E24" t="n">
-        <v>61080.24</v>
+        <v>655884.52</v>
       </c>
       <c r="F24" t="n">
-        <v>61330.33</v>
+        <v>655200.9399999999</v>
       </c>
       <c r="G24" t="n">
-        <v>61115.88</v>
-      </c>
-      <c r="H24" t="n">
-        <v>61275.22</v>
-      </c>
-      <c r="I24" t="n">
-        <v>60987.94</v>
-      </c>
-      <c r="J24" t="n">
-        <v>61046.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>61232.93</v>
-      </c>
-      <c r="L24" t="n">
-        <v>61147.98</v>
-      </c>
-      <c r="M24" t="n">
-        <v>61183.44</v>
+        <v>658701.48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527821.1800000001</v>
+        <v>404093.04</v>
       </c>
       <c r="C25" t="n">
-        <v>577488.4300000001</v>
+        <v>405450.76</v>
       </c>
       <c r="D25" t="n">
-        <v>669025.4300000001</v>
+        <v>388990.21</v>
       </c>
       <c r="E25" t="n">
-        <v>715707.58</v>
+        <v>403937.93</v>
       </c>
       <c r="F25" t="n">
-        <v>614705.9399999999</v>
+        <v>404777.08</v>
       </c>
       <c r="G25" t="n">
-        <v>615171.67</v>
-      </c>
-      <c r="H25" t="n">
-        <v>617496.6800000001</v>
-      </c>
-      <c r="I25" t="n">
-        <v>614491.1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>615296.84</v>
-      </c>
-      <c r="K25" t="n">
-        <v>614710.71</v>
-      </c>
-      <c r="L25" t="n">
-        <v>618004.24</v>
-      </c>
-      <c r="M25" t="n">
-        <v>615600.77</v>
+        <v>403784.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>404728.96</v>
+        <v>942278.01</v>
       </c>
       <c r="C26" t="n">
-        <v>405310.49</v>
+        <v>939011.78</v>
       </c>
       <c r="D26" t="n">
-        <v>403835.28</v>
+        <v>906394.01</v>
       </c>
       <c r="E26" t="n">
-        <v>403697.32</v>
+        <v>937231.71</v>
       </c>
       <c r="F26" t="n">
-        <v>404988.91</v>
+        <v>940654.63</v>
       </c>
       <c r="G26" t="n">
-        <v>403662.09</v>
-      </c>
-      <c r="H26" t="n">
-        <v>404935.79</v>
-      </c>
-      <c r="I26" t="n">
-        <v>405682.8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>405039.97</v>
-      </c>
-      <c r="K26" t="n">
-        <v>404516.47</v>
-      </c>
-      <c r="L26" t="n">
-        <v>404332.67</v>
-      </c>
-      <c r="M26" t="n">
-        <v>404093.04</v>
+        <v>937275.8199999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>936650.5600000001</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>1557655.36</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1562337.03</v>
+      </c>
       <c r="D27" t="n">
-        <v>938374.1800000001</v>
+        <v>1499177.5</v>
       </c>
       <c r="E27" t="n">
-        <v>939438.1899999999</v>
+        <v>1561738.4</v>
       </c>
       <c r="F27" t="n">
-        <v>940515.9399999999</v>
+        <v>1561724.76</v>
       </c>
       <c r="G27" t="n">
-        <v>939075.53</v>
-      </c>
-      <c r="H27" t="n">
-        <v>940000.59</v>
-      </c>
-      <c r="I27" t="n">
-        <v>942852.0699999999</v>
-      </c>
-      <c r="J27" t="n">
-        <v>938753.14</v>
-      </c>
-      <c r="K27" t="n">
-        <v>942040.46</v>
-      </c>
-      <c r="L27" t="n">
-        <v>938375.88</v>
-      </c>
-      <c r="M27" t="n">
-        <v>942278.01</v>
+        <v>1559700.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1411757.85</v>
+        <v>599125.27</v>
       </c>
       <c r="C28" t="n">
-        <v>1407218.71</v>
+        <v>601816.9300000001</v>
       </c>
       <c r="D28" t="n">
-        <v>1407383.45</v>
+        <v>577613.4</v>
       </c>
       <c r="E28" t="n">
-        <v>1416616.66</v>
+        <v>601915.76</v>
       </c>
       <c r="F28" t="n">
-        <v>1411662.15</v>
+        <v>600917.1</v>
       </c>
       <c r="G28" t="n">
-        <v>1559843.51</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1557948.48</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1559645.43</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1559536.85</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1563043.66</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1566226.74</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1557655.36</v>
+        <v>598164.5600000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29979.9</v>
+        <v>1365604.59</v>
       </c>
       <c r="C29" t="n">
-        <v>29113.3</v>
+        <v>1369766.56</v>
       </c>
       <c r="D29" t="n">
-        <v>31247.85</v>
+        <v>1310751.5</v>
       </c>
       <c r="E29" t="n">
-        <v>29933.74</v>
+        <v>1365864.13</v>
       </c>
       <c r="F29" t="n">
-        <v>29194.99</v>
+        <v>1364543.41</v>
       </c>
       <c r="G29" t="n">
-        <v>31972.85</v>
-      </c>
-      <c r="H29" t="n">
-        <v>30463.41</v>
-      </c>
-      <c r="I29" t="n">
-        <v>382036.29</v>
-      </c>
-      <c r="J29" t="n">
-        <v>501992.11</v>
-      </c>
-      <c r="K29" t="n">
-        <v>499548.43</v>
-      </c>
-      <c r="L29" t="n">
-        <v>599995.17</v>
-      </c>
-      <c r="M29" t="n">
-        <v>599125.27</v>
+        <v>1368912</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1214413.21</v>
+        <v>910513.23</v>
       </c>
       <c r="C30" t="n">
-        <v>1216155.65</v>
+        <v>862784.58</v>
       </c>
       <c r="D30" t="n">
-        <v>1213995.71</v>
+        <v>828786.79</v>
       </c>
       <c r="E30" t="n">
-        <v>1215268.34</v>
+        <v>873745.55</v>
       </c>
       <c r="F30" t="n">
-        <v>1364015.86</v>
+        <v>861732.24</v>
       </c>
       <c r="G30" t="n">
-        <v>1368243.99</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1368340.22</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1366826.45</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1364362.93</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1366084.57</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1367066.87</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1365604.59</v>
+        <v>935796.8100000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>925134.17</v>
+        <v>24181429.35</v>
       </c>
       <c r="C31" t="n">
-        <v>925542.4399999999</v>
+        <v>21607432.21</v>
       </c>
       <c r="D31" t="n">
-        <v>870614.04</v>
+        <v>18577470.32</v>
       </c>
       <c r="E31" t="n">
-        <v>854493.9300000001</v>
+        <v>15532462.26</v>
       </c>
       <c r="F31" t="n">
-        <v>926644.8199999999</v>
+        <v>14032147.02</v>
       </c>
       <c r="G31" t="n">
-        <v>935577.9</v>
-      </c>
-      <c r="H31" t="n">
-        <v>937976.48</v>
-      </c>
-      <c r="I31" t="n">
-        <v>937115.73</v>
-      </c>
-      <c r="J31" t="n">
-        <v>938610.3100000001</v>
-      </c>
-      <c r="K31" t="n">
-        <v>938408.13</v>
-      </c>
-      <c r="L31" t="n">
-        <v>939666.11</v>
-      </c>
-      <c r="M31" t="n">
-        <v>910513.23</v>
+        <v>14010954.95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17717880.06</v>
+        <v>4063774.36</v>
       </c>
       <c r="C32" t="n">
-        <v>17725718.49</v>
+        <v>4045870.72</v>
       </c>
       <c r="D32" t="n">
-        <v>17769651.84</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+        <v>3893895.69</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4049819.89</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4047283.57</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4046330.4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24944544.43</v>
+        <v>3519044.48</v>
       </c>
       <c r="C33" t="n">
-        <v>24951084.52</v>
+        <v>3428381.11</v>
       </c>
       <c r="D33" t="n">
-        <v>24907279.91</v>
+        <v>3223504.47</v>
       </c>
       <c r="E33" t="n">
-        <v>24922874.13</v>
+        <v>3215755.41</v>
       </c>
       <c r="F33" t="n">
-        <v>24910305.57</v>
+        <v>3079956.33</v>
       </c>
       <c r="G33" t="n">
-        <v>24908758.54</v>
-      </c>
-      <c r="H33" t="n">
-        <v>24912822.39</v>
-      </c>
-      <c r="I33" t="n">
-        <v>24914614.25</v>
-      </c>
-      <c r="J33" t="n">
-        <v>24945918.63</v>
-      </c>
-      <c r="K33" t="n">
-        <v>24144267.97</v>
-      </c>
-      <c r="L33" t="n">
-        <v>24153658.03</v>
-      </c>
-      <c r="M33" t="n">
-        <v>24181429.35</v>
+        <v>3104217.24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4062543.59</v>
+        <v>105571334.49</v>
       </c>
       <c r="C34" t="n">
-        <v>4051087.37</v>
+        <v>102851433.27</v>
       </c>
       <c r="D34" t="n">
-        <v>4051344.5</v>
+        <v>96705134.13</v>
       </c>
       <c r="E34" t="n">
-        <v>4048037.09</v>
+        <v>96472662.36</v>
       </c>
       <c r="F34" t="n">
-        <v>4063228.9</v>
+        <v>95478646.36</v>
       </c>
       <c r="G34" t="n">
-        <v>4053912.64</v>
-      </c>
-      <c r="H34" t="n">
-        <v>4055286.03</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4054904.97</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4059341.84</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4056880.72</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4046618.93</v>
-      </c>
-      <c r="M34" t="n">
-        <v>4063774.36</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>3777704.59</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4575123.11</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3776837.02</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3520031.85</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3556079.15</v>
-      </c>
-      <c r="G35" t="n">
-        <v>3560697.48</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3557330.62</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3532236.78</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3522547.23</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3550454.04</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3517807.02</v>
-      </c>
-      <c r="M35" t="n">
-        <v>3519044.48</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>124664251.34</v>
-      </c>
-      <c r="C36" t="n">
-        <v>109802954.64</v>
-      </c>
-      <c r="D36" t="n">
-        <v>124635621.79</v>
-      </c>
-      <c r="E36" t="n">
-        <v>105600955.52</v>
-      </c>
-      <c r="F36" t="n">
-        <v>106682374.44</v>
-      </c>
-      <c r="G36" t="n">
-        <v>106820924.46</v>
-      </c>
-      <c r="H36" t="n">
-        <v>106719918.59</v>
-      </c>
-      <c r="I36" t="n">
-        <v>105967103.27</v>
-      </c>
-      <c r="J36" t="n">
-        <v>105676416.94</v>
-      </c>
-      <c r="K36" t="n">
-        <v>106513621.06</v>
-      </c>
-      <c r="L36" t="n">
-        <v>105534210.62</v>
-      </c>
-      <c r="M36" t="n">
-        <v>105571334.49</v>
+        <v>96230734.36</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>4113761.49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4114314.89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4576555.3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4579372.39</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4576936.11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4575866.19</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4404460.94</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3888137.83</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3463999.98</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3462975.17</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2825944.54</v>
+      </c>
+      <c r="M2" t="n">
         <v>2828996.83</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2827378.98</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2724474.47</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2598371.43</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2599878.33</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2596215.13</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>3706367.68</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3723756.54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3707703.88</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3984406.98</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3990307.17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3985844.72</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3981206.42</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3975325.98</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3978358.22</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3986081.15</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3710970.77</v>
+      </c>
+      <c r="M3" t="n">
         <v>3973208.02</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3967812.25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3822975.45</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3974209.69</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3977134.29</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4174361.56</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>474972.72</v>
+      </c>
+      <c r="C4" t="n">
+        <v>472594.6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>561024.89</v>
+      </c>
+      <c r="E4" t="n">
+        <v>563065.3100000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>564843.35</v>
+      </c>
+      <c r="G4" t="n">
+        <v>561767.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>565019.47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>561706.97</v>
+      </c>
+      <c r="J4" t="n">
+        <v>562467.97</v>
+      </c>
+      <c r="K4" t="n">
+        <v>563089.62</v>
+      </c>
+      <c r="L4" t="n">
+        <v>563212.52</v>
+      </c>
+      <c r="M4" t="n">
         <v>563453.78</v>
-      </c>
-      <c r="C4" t="n">
-        <v>562955.15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>540578.28</v>
-      </c>
-      <c r="E4" t="n">
-        <v>564191.89</v>
-      </c>
-      <c r="F4" t="n">
-        <v>565255.72</v>
-      </c>
-      <c r="G4" t="n">
-        <v>699170.23</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>2243785.92</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2249629.99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2250267.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2249733.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2246212.88</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2247653.09</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2249478.79</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2242552.15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2246180.55</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2247383.88</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2248172.81</v>
+      </c>
+      <c r="M5" t="n">
         <v>2244799.23</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2244804.15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2156917.58</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2250522.43</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2243613.92</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2245855.43</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>4547640.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4562501.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4547409.31</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4560871.75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4549282.35</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4561268.23</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4545796.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3914980.98</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3909022.44</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3912139.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3907403.65</v>
+      </c>
+      <c r="M6" t="n">
         <v>3909834.46</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3918409.94</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3756954.34</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3909696.64</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3914565.49</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3913045.72</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>143994.05</v>
+      </c>
+      <c r="C7" t="n">
+        <v>143868.09</v>
+      </c>
+      <c r="D7" t="n">
+        <v>144429.77</v>
+      </c>
+      <c r="E7" t="n">
+        <v>143737.51</v>
+      </c>
+      <c r="F7" t="n">
+        <v>143175.34</v>
+      </c>
+      <c r="G7" t="n">
+        <v>143231.57</v>
+      </c>
+      <c r="H7" t="n">
+        <v>143131.46</v>
+      </c>
+      <c r="I7" t="n">
+        <v>143048.91</v>
+      </c>
+      <c r="J7" t="n">
+        <v>143801.64</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17112.65</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17120.11</v>
+      </c>
+      <c r="M7" t="n">
         <v>17177.85</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17105.08</v>
-      </c>
-      <c r="D7" t="n">
-        <v>16463.41</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17106.78</v>
-      </c>
-      <c r="F7" t="n">
-        <v>17124.77</v>
-      </c>
-      <c r="G7" t="n">
-        <v>17180.4</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>488559.75</v>
+      </c>
+      <c r="C8" t="n">
+        <v>482158.04</v>
+      </c>
+      <c r="D8" t="n">
+        <v>228550.29</v>
+      </c>
+      <c r="E8" t="n">
+        <v>137345.36</v>
+      </c>
+      <c r="F8" t="n">
+        <v>129626.02</v>
+      </c>
+      <c r="G8" t="n">
+        <v>125444</v>
+      </c>
+      <c r="H8" t="n">
+        <v>130294.41</v>
+      </c>
+      <c r="I8" t="n">
+        <v>136569.84</v>
+      </c>
+      <c r="J8" t="n">
+        <v>135695.73</v>
+      </c>
+      <c r="K8" t="n">
+        <v>136519.62</v>
+      </c>
+      <c r="L8" t="n">
+        <v>136292.65</v>
+      </c>
+      <c r="M8" t="n">
         <v>128109.63</v>
-      </c>
-      <c r="C8" t="n">
-        <v>132323.62</v>
-      </c>
-      <c r="D8" t="n">
-        <v>119848.79</v>
-      </c>
-      <c r="E8" t="n">
-        <v>119900.57</v>
-      </c>
-      <c r="F8" t="n">
-        <v>122325.59</v>
-      </c>
-      <c r="G8" t="n">
-        <v>118763.61</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,38 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>280180.48</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>279356.59</v>
+      </c>
+      <c r="E9" t="n">
+        <v>278843.11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>281552.55</v>
+      </c>
+      <c r="G9" t="n">
+        <v>279678.97</v>
+      </c>
+      <c r="H9" t="n">
+        <v>282489.52</v>
+      </c>
+      <c r="I9" t="n">
+        <v>281216.87</v>
+      </c>
+      <c r="J9" t="n">
+        <v>281900.86</v>
+      </c>
+      <c r="K9" t="n">
+        <v>279208.73</v>
+      </c>
+      <c r="L9" t="n">
+        <v>279068.06</v>
+      </c>
+      <c r="M9" t="n">
         <v>280264.67</v>
-      </c>
-      <c r="C9" t="n">
-        <v>279077.32</v>
-      </c>
-      <c r="D9" t="n">
-        <v>269790.33</v>
-      </c>
-      <c r="E9" t="n">
-        <v>279182.64</v>
-      </c>
-      <c r="F9" t="n">
-        <v>279551.36</v>
-      </c>
-      <c r="G9" t="n">
-        <v>278325.6</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +844,38 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>156779.61</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>156569.59</v>
+      </c>
+      <c r="E10" t="n">
+        <v>156673.24</v>
+      </c>
+      <c r="F10" t="n">
+        <v>156668.16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>156724.72</v>
+      </c>
+      <c r="H10" t="n">
+        <v>156780.84</v>
+      </c>
+      <c r="I10" t="n">
+        <v>156737.36</v>
+      </c>
+      <c r="J10" t="n">
+        <v>156597.67</v>
+      </c>
+      <c r="K10" t="n">
+        <v>156692.97</v>
+      </c>
+      <c r="L10" t="n">
+        <v>156636.38</v>
+      </c>
+      <c r="M10" t="n">
         <v>156602.04</v>
-      </c>
-      <c r="C10" t="n">
-        <v>156798.19</v>
-      </c>
-      <c r="D10" t="n">
-        <v>150753.04</v>
-      </c>
-      <c r="E10" t="n">
-        <v>156627.43</v>
-      </c>
-      <c r="F10" t="n">
-        <v>156580.95</v>
-      </c>
-      <c r="G10" t="n">
-        <v>156772.42</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +885,38 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>250911.45</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>250841.35</v>
+      </c>
+      <c r="E11" t="n">
+        <v>250728.77</v>
+      </c>
+      <c r="F11" t="n">
+        <v>250926.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>250967.51</v>
+      </c>
+      <c r="H11" t="n">
+        <v>250864.98</v>
+      </c>
+      <c r="I11" t="n">
+        <v>250700.64</v>
+      </c>
+      <c r="J11" t="n">
+        <v>250682.49</v>
+      </c>
+      <c r="K11" t="n">
+        <v>250802.15</v>
+      </c>
+      <c r="L11" t="n">
+        <v>250853.42</v>
+      </c>
+      <c r="M11" t="n">
         <v>250898.01</v>
-      </c>
-      <c r="C11" t="n">
-        <v>250795.94</v>
-      </c>
-      <c r="D11" t="n">
-        <v>241111.43</v>
-      </c>
-      <c r="E11" t="n">
-        <v>250780.91</v>
-      </c>
-      <c r="F11" t="n">
-        <v>250829.9</v>
-      </c>
-      <c r="G11" t="n">
-        <v>250750.25</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +926,38 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>5591096.83</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>5448365.37</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5449672.05</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5443011.15</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5442534.72</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5449603.21</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5450798.61</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5446289.64</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5448203.74</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5450351.82</v>
+      </c>
+      <c r="M12" t="n">
         <v>5445248.73</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5447914.65</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5240695.31</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5444096.28</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5444225.88</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5447992.93</v>
       </c>
     </row>
     <row r="13">
@@ -747,539 +967,965 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>4893135.39</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>4821760.27</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4748455.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4755443.81</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4746124.25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4752207.38</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4755914.85</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4736198.46</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4748918.42</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4754098.57</v>
+      </c>
+      <c r="M13" t="n">
         <v>4740478.55</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4753855.86</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4555069.14</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4752929.32</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4737438.23</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4734316.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>FBA Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>986827.87</v>
+      </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>798198.02</v>
+      </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>344669.93</v>
-      </c>
-      <c r="G14" t="n">
-        <v>342392.6</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1319907.72</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1322571.9</v>
-      </c>
+        <v>958088.42</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>1276144.09</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1323842.46</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1433728.84</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1694479.9</v>
-      </c>
+        <v>788917.15</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2788346.13</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2727954.26</v>
-      </c>
+        <v>1238457.64</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>2623880.84</v>
+        <v>1224141.02</v>
       </c>
       <c r="E16" t="n">
-        <v>2681533.26</v>
+        <v>1341680.07</v>
       </c>
       <c r="F16" t="n">
-        <v>2737364.71</v>
+        <v>1291280.28</v>
       </c>
       <c r="G16" t="n">
-        <v>2881719.69</v>
+        <v>1306950.62</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1303314.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1397009.92</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1403648.36</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1401550.55</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1387744.29</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1319907.72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37970488.44</v>
+        <v>2689607.22</v>
       </c>
       <c r="C17" t="n">
-        <v>37991295.88</v>
+        <v>2746566.57</v>
       </c>
       <c r="D17" t="n">
-        <v>36570383.25</v>
+        <v>2788194.61</v>
       </c>
       <c r="E17" t="n">
-        <v>37999422.18</v>
+        <v>2792287.68</v>
       </c>
       <c r="F17" t="n">
-        <v>38008363.74</v>
+        <v>2791049.78</v>
       </c>
       <c r="G17" t="n">
-        <v>37997021.2</v>
+        <v>2785384.15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2785968.66</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2778975.33</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2789632.35</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2779672.82</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2786051.18</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2788346.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>578677.61</v>
+        <v>34978162.49</v>
       </c>
       <c r="C18" t="n">
-        <v>577242.4</v>
+        <v>35247486.51</v>
       </c>
       <c r="D18" t="n">
-        <v>555968.61</v>
+        <v>35249384.38</v>
       </c>
       <c r="E18" t="n">
-        <v>578561</v>
+        <v>35241934</v>
       </c>
       <c r="F18" t="n">
-        <v>576955.0600000001</v>
+        <v>36268616.48</v>
       </c>
       <c r="G18" t="n">
-        <v>577141.13</v>
+        <v>36255393.85</v>
+      </c>
+      <c r="H18" t="n">
+        <v>36241319.01</v>
+      </c>
+      <c r="I18" t="n">
+        <v>36237809.81</v>
+      </c>
+      <c r="J18" t="n">
+        <v>36273450.56</v>
+      </c>
+      <c r="K18" t="n">
+        <v>38023404.26</v>
+      </c>
+      <c r="L18" t="n">
+        <v>38025630.31</v>
+      </c>
+      <c r="M18" t="n">
+        <v>37970488.44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10194.9</v>
+        <v>571901.09</v>
       </c>
       <c r="C19" t="n">
-        <v>10446</v>
+        <v>572507.54</v>
       </c>
       <c r="D19" t="n">
-        <v>10094.84</v>
+        <v>503173.52</v>
       </c>
       <c r="E19" t="n">
-        <v>10016.66</v>
+        <v>504018.71</v>
       </c>
       <c r="F19" t="n">
-        <v>10418.61</v>
+        <v>503778.59</v>
       </c>
       <c r="G19" t="n">
-        <v>9948.049999999999</v>
+        <v>503108.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>503076.66</v>
+      </c>
+      <c r="I19" t="n">
+        <v>578936.66</v>
+      </c>
+      <c r="J19" t="n">
+        <v>578507.16</v>
+      </c>
+      <c r="K19" t="n">
+        <v>578189.21</v>
+      </c>
+      <c r="L19" t="n">
+        <v>578339.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>578677.61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>814854.75</v>
+        <v>10033.82</v>
       </c>
       <c r="C20" t="n">
-        <v>736735.05</v>
+        <v>10218.84</v>
       </c>
       <c r="D20" t="n">
-        <v>712985.5600000001</v>
+        <v>10222.47</v>
       </c>
       <c r="E20" t="n">
-        <v>689890.61</v>
+        <v>9973.15</v>
       </c>
       <c r="F20" t="n">
-        <v>688745.9300000001</v>
+        <v>10361.53</v>
       </c>
       <c r="G20" t="n">
-        <v>639001.35</v>
+        <v>10031.78</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10410.74</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10477.52</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10380.89</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10458.56</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10356.34</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10194.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2173083.17</v>
+        <v>1110944.81</v>
       </c>
       <c r="C21" t="n">
-        <v>2177444.79</v>
+        <v>1114191.59</v>
       </c>
       <c r="D21" t="n">
-        <v>2093857.48</v>
+        <v>1115822.33</v>
       </c>
       <c r="E21" t="n">
-        <v>2176828.49</v>
+        <v>1113916.46</v>
       </c>
       <c r="F21" t="n">
-        <v>2175505.46</v>
+        <v>1116191.21</v>
       </c>
       <c r="G21" t="n">
-        <v>2173935.29</v>
+        <v>1117482.94</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1067985.71</v>
+      </c>
+      <c r="I21" t="n">
+        <v>960983.92</v>
+      </c>
+      <c r="J21" t="n">
+        <v>915590.95</v>
+      </c>
+      <c r="K21" t="n">
+        <v>912386.39</v>
+      </c>
+      <c r="L21" t="n">
+        <v>811623.13</v>
+      </c>
+      <c r="M21" t="n">
+        <v>814854.75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675452.55</v>
+        <v>2532721.25</v>
       </c>
       <c r="C22" t="n">
-        <v>676981.79</v>
+        <v>2532858.42</v>
       </c>
       <c r="D22" t="n">
-        <v>632521.1</v>
+        <v>2234639.69</v>
       </c>
       <c r="E22" t="n">
-        <v>651315.35</v>
+        <v>2230789.12</v>
       </c>
       <c r="F22" t="n">
-        <v>664282.4</v>
+        <v>2236250.23</v>
       </c>
       <c r="G22" t="n">
-        <v>701789.17</v>
+        <v>2236189.03</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2239155.35</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2233492.64</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2232783.41</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2235960.35</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2172240.8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2173083.17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>61183.44</v>
+        <v>467361.57</v>
       </c>
       <c r="C23" t="n">
-        <v>61021.1</v>
+        <v>488019.84</v>
       </c>
       <c r="D23" t="n">
-        <v>58698.64</v>
+        <v>626333.74</v>
       </c>
       <c r="E23" t="n">
-        <v>61036.19</v>
+        <v>656303.49</v>
       </c>
       <c r="F23" t="n">
-        <v>61106.5</v>
+        <v>650267.2</v>
       </c>
       <c r="G23" t="n">
-        <v>60935.1</v>
+        <v>651944.02</v>
+      </c>
+      <c r="H23" t="n">
+        <v>770808.65</v>
+      </c>
+      <c r="I23" t="n">
+        <v>772569.45</v>
+      </c>
+      <c r="J23" t="n">
+        <v>771328.89</v>
+      </c>
+      <c r="K23" t="n">
+        <v>772137.0699999999</v>
+      </c>
+      <c r="L23" t="n">
+        <v>767007.64</v>
+      </c>
+      <c r="M23" t="n">
+        <v>675452.55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>615600.77</v>
+        <v>53505.18</v>
       </c>
       <c r="C24" t="n">
-        <v>616038.4</v>
+        <v>53562.38</v>
       </c>
       <c r="D24" t="n">
-        <v>591888.73</v>
+        <v>61008.86</v>
       </c>
       <c r="E24" t="n">
-        <v>655884.52</v>
+        <v>61080.24</v>
       </c>
       <c r="F24" t="n">
-        <v>655200.9399999999</v>
+        <v>61330.33</v>
       </c>
       <c r="G24" t="n">
-        <v>658701.48</v>
+        <v>61115.88</v>
+      </c>
+      <c r="H24" t="n">
+        <v>61275.22</v>
+      </c>
+      <c r="I24" t="n">
+        <v>60987.94</v>
+      </c>
+      <c r="J24" t="n">
+        <v>61046.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>61232.93</v>
+      </c>
+      <c r="L24" t="n">
+        <v>61147.98</v>
+      </c>
+      <c r="M24" t="n">
+        <v>61183.44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>404093.04</v>
+        <v>527821.1800000001</v>
       </c>
       <c r="C25" t="n">
-        <v>405450.76</v>
+        <v>577488.4300000001</v>
       </c>
       <c r="D25" t="n">
-        <v>388990.21</v>
+        <v>669025.4300000001</v>
       </c>
       <c r="E25" t="n">
-        <v>403937.93</v>
+        <v>715707.58</v>
       </c>
       <c r="F25" t="n">
-        <v>404777.08</v>
+        <v>614705.9399999999</v>
       </c>
       <c r="G25" t="n">
-        <v>403784.08</v>
+        <v>615171.67</v>
+      </c>
+      <c r="H25" t="n">
+        <v>617496.6800000001</v>
+      </c>
+      <c r="I25" t="n">
+        <v>614491.1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>615296.84</v>
+      </c>
+      <c r="K25" t="n">
+        <v>614710.71</v>
+      </c>
+      <c r="L25" t="n">
+        <v>618004.24</v>
+      </c>
+      <c r="M25" t="n">
+        <v>615600.77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>942278.01</v>
+        <v>404728.96</v>
       </c>
       <c r="C26" t="n">
-        <v>939011.78</v>
+        <v>405310.49</v>
       </c>
       <c r="D26" t="n">
-        <v>906394.01</v>
+        <v>403835.28</v>
       </c>
       <c r="E26" t="n">
-        <v>937231.71</v>
+        <v>403697.32</v>
       </c>
       <c r="F26" t="n">
-        <v>940654.63</v>
+        <v>404988.91</v>
       </c>
       <c r="G26" t="n">
-        <v>937275.8199999999</v>
+        <v>403662.09</v>
+      </c>
+      <c r="H26" t="n">
+        <v>404935.79</v>
+      </c>
+      <c r="I26" t="n">
+        <v>405682.8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>405039.97</v>
+      </c>
+      <c r="K26" t="n">
+        <v>404516.47</v>
+      </c>
+      <c r="L26" t="n">
+        <v>404332.67</v>
+      </c>
+      <c r="M26" t="n">
+        <v>404093.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1557655.36</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1562337.03</v>
-      </c>
+        <v>936650.5600000001</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>1499177.5</v>
+        <v>938374.1800000001</v>
       </c>
       <c r="E27" t="n">
-        <v>1561738.4</v>
+        <v>939438.1899999999</v>
       </c>
       <c r="F27" t="n">
-        <v>1561724.76</v>
+        <v>940515.9399999999</v>
       </c>
       <c r="G27" t="n">
-        <v>1559700.75</v>
+        <v>939075.53</v>
+      </c>
+      <c r="H27" t="n">
+        <v>940000.59</v>
+      </c>
+      <c r="I27" t="n">
+        <v>942852.0699999999</v>
+      </c>
+      <c r="J27" t="n">
+        <v>938753.14</v>
+      </c>
+      <c r="K27" t="n">
+        <v>942040.46</v>
+      </c>
+      <c r="L27" t="n">
+        <v>938375.88</v>
+      </c>
+      <c r="M27" t="n">
+        <v>942278.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>599125.27</v>
+        <v>1411757.85</v>
       </c>
       <c r="C28" t="n">
-        <v>601816.9300000001</v>
+        <v>1407218.71</v>
       </c>
       <c r="D28" t="n">
-        <v>577613.4</v>
+        <v>1407383.45</v>
       </c>
       <c r="E28" t="n">
-        <v>601915.76</v>
+        <v>1416616.66</v>
       </c>
       <c r="F28" t="n">
-        <v>600917.1</v>
+        <v>1411662.15</v>
       </c>
       <c r="G28" t="n">
-        <v>598164.5600000001</v>
+        <v>1559843.51</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1557948.48</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1559645.43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1559536.85</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1563043.66</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1566226.74</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1557655.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1365604.59</v>
+        <v>29979.9</v>
       </c>
       <c r="C29" t="n">
-        <v>1369766.56</v>
+        <v>29113.3</v>
       </c>
       <c r="D29" t="n">
-        <v>1310751.5</v>
+        <v>31247.85</v>
       </c>
       <c r="E29" t="n">
-        <v>1365864.13</v>
+        <v>29933.74</v>
       </c>
       <c r="F29" t="n">
-        <v>1364543.41</v>
+        <v>29194.99</v>
       </c>
       <c r="G29" t="n">
-        <v>1368912</v>
+        <v>31972.85</v>
+      </c>
+      <c r="H29" t="n">
+        <v>30463.41</v>
+      </c>
+      <c r="I29" t="n">
+        <v>382036.29</v>
+      </c>
+      <c r="J29" t="n">
+        <v>501992.11</v>
+      </c>
+      <c r="K29" t="n">
+        <v>499548.43</v>
+      </c>
+      <c r="L29" t="n">
+        <v>599995.17</v>
+      </c>
+      <c r="M29" t="n">
+        <v>599125.27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>910513.23</v>
+        <v>1214413.21</v>
       </c>
       <c r="C30" t="n">
-        <v>862784.58</v>
+        <v>1216155.65</v>
       </c>
       <c r="D30" t="n">
-        <v>828786.79</v>
+        <v>1213995.71</v>
       </c>
       <c r="E30" t="n">
-        <v>873745.55</v>
+        <v>1215268.34</v>
       </c>
       <c r="F30" t="n">
-        <v>861732.24</v>
+        <v>1364015.86</v>
       </c>
       <c r="G30" t="n">
-        <v>935796.8100000001</v>
+        <v>1368243.99</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1368340.22</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1366826.45</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1364362.93</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1366084.57</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1367066.87</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1365604.59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24181429.35</v>
+        <v>925134.17</v>
       </c>
       <c r="C31" t="n">
-        <v>21607432.21</v>
+        <v>925542.4399999999</v>
       </c>
       <c r="D31" t="n">
-        <v>18577470.32</v>
+        <v>870614.04</v>
       </c>
       <c r="E31" t="n">
-        <v>15532462.26</v>
+        <v>854493.9300000001</v>
       </c>
       <c r="F31" t="n">
-        <v>14032147.02</v>
+        <v>926644.8199999999</v>
       </c>
       <c r="G31" t="n">
-        <v>14010954.95</v>
+        <v>935577.9</v>
+      </c>
+      <c r="H31" t="n">
+        <v>937976.48</v>
+      </c>
+      <c r="I31" t="n">
+        <v>937115.73</v>
+      </c>
+      <c r="J31" t="n">
+        <v>938610.3100000001</v>
+      </c>
+      <c r="K31" t="n">
+        <v>938408.13</v>
+      </c>
+      <c r="L31" t="n">
+        <v>939666.11</v>
+      </c>
+      <c r="M31" t="n">
+        <v>910513.23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4063774.36</v>
+        <v>17717880.06</v>
       </c>
       <c r="C32" t="n">
-        <v>4045870.72</v>
+        <v>17725718.49</v>
       </c>
       <c r="D32" t="n">
-        <v>3893895.69</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4049819.89</v>
-      </c>
-      <c r="F32" t="n">
-        <v>4047283.57</v>
-      </c>
-      <c r="G32" t="n">
-        <v>4046330.4</v>
-      </c>
+        <v>17769651.84</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3519044.48</v>
+        <v>24944544.43</v>
       </c>
       <c r="C33" t="n">
-        <v>3428381.11</v>
+        <v>24951084.52</v>
       </c>
       <c r="D33" t="n">
-        <v>3223504.47</v>
+        <v>24907279.91</v>
       </c>
       <c r="E33" t="n">
-        <v>3215755.41</v>
+        <v>24922874.13</v>
       </c>
       <c r="F33" t="n">
-        <v>3079956.33</v>
+        <v>24910305.57</v>
       </c>
       <c r="G33" t="n">
-        <v>3104217.24</v>
+        <v>24908758.54</v>
+      </c>
+      <c r="H33" t="n">
+        <v>24912822.39</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24914614.25</v>
+      </c>
+      <c r="J33" t="n">
+        <v>24945918.63</v>
+      </c>
+      <c r="K33" t="n">
+        <v>24144267.97</v>
+      </c>
+      <c r="L33" t="n">
+        <v>24153658.03</v>
+      </c>
+      <c r="M33" t="n">
+        <v>24181429.35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4062543.59</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4051087.37</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4051344.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4048037.09</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4063228.9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4053912.64</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4055286.03</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4054904.97</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4059341.84</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4056880.72</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4046618.93</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4063774.36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3777704.59</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4575123.11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3776837.02</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3520031.85</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3556079.15</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3560697.48</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3557330.62</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3532236.78</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3522547.23</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3550454.04</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3517807.02</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3519044.48</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B36" t="n">
+        <v>124664251.34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>109802954.64</v>
+      </c>
+      <c r="D36" t="n">
+        <v>124635621.79</v>
+      </c>
+      <c r="E36" t="n">
+        <v>105600955.52</v>
+      </c>
+      <c r="F36" t="n">
+        <v>106682374.44</v>
+      </c>
+      <c r="G36" t="n">
+        <v>106820924.46</v>
+      </c>
+      <c r="H36" t="n">
+        <v>106719918.59</v>
+      </c>
+      <c r="I36" t="n">
+        <v>105967103.27</v>
+      </c>
+      <c r="J36" t="n">
+        <v>105676416.94</v>
+      </c>
+      <c r="K36" t="n">
+        <v>106513621.06</v>
+      </c>
+      <c r="L36" t="n">
+        <v>105534210.62</v>
+      </c>
+      <c r="M36" t="n">
         <v>105571334.49</v>
-      </c>
-      <c r="C34" t="n">
-        <v>102851433.27</v>
-      </c>
-      <c r="D34" t="n">
-        <v>96705134.13</v>
-      </c>
-      <c r="E34" t="n">
-        <v>96472662.36</v>
-      </c>
-      <c r="F34" t="n">
-        <v>95478646.36</v>
-      </c>
-      <c r="G34" t="n">
-        <v>96230734.36</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/COME.xlsx
+++ b/backend/src/excel_handler/files/COME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4113761.49</v>
+        <v>2828996.83</v>
       </c>
       <c r="C2" t="n">
-        <v>4114314.89</v>
+        <v>2827378.98</v>
       </c>
       <c r="D2" t="n">
-        <v>4576555.3</v>
+        <v>2724474.47</v>
       </c>
       <c r="E2" t="n">
-        <v>4579372.39</v>
+        <v>2598371.43</v>
       </c>
       <c r="F2" t="n">
-        <v>4576936.11</v>
+        <v>2599878.33</v>
       </c>
       <c r="G2" t="n">
-        <v>4575866.19</v>
+        <v>2596215.13</v>
       </c>
       <c r="H2" t="n">
-        <v>4404460.94</v>
+        <v>2598122.58</v>
       </c>
       <c r="I2" t="n">
-        <v>3888137.83</v>
+        <v>2600260.24</v>
       </c>
       <c r="J2" t="n">
-        <v>3463999.98</v>
+        <v>2924503.44</v>
       </c>
       <c r="K2" t="n">
-        <v>3462975.17</v>
+        <v>2923675.9</v>
       </c>
       <c r="L2" t="n">
-        <v>2825944.54</v>
+        <v>2917691.73</v>
       </c>
       <c r="M2" t="n">
-        <v>2828996.83</v>
+        <v>2925551.33</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3076769.06</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3581574.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3659451.97</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3741736.83</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3739606.95</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3743160.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3734753.8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3742342.71</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3727922.48</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3744862.99</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3924378.57</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3632079.66</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2449631.28</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2433899.79</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3706367.68</v>
+        <v>3973208.02</v>
       </c>
       <c r="C3" t="n">
-        <v>3723756.54</v>
+        <v>3967812.25</v>
       </c>
       <c r="D3" t="n">
-        <v>3707703.88</v>
+        <v>3822975.45</v>
       </c>
       <c r="E3" t="n">
-        <v>3984406.98</v>
+        <v>3974209.69</v>
       </c>
       <c r="F3" t="n">
-        <v>3990307.17</v>
+        <v>3977134.29</v>
       </c>
       <c r="G3" t="n">
-        <v>3985844.72</v>
+        <v>4174361.56</v>
       </c>
       <c r="H3" t="n">
-        <v>3981206.42</v>
+        <v>4178341.17</v>
       </c>
       <c r="I3" t="n">
-        <v>3975325.98</v>
+        <v>4183386</v>
       </c>
       <c r="J3" t="n">
-        <v>3978358.22</v>
+        <v>4180450.51</v>
       </c>
       <c r="K3" t="n">
-        <v>3986081.15</v>
+        <v>4409267.93</v>
       </c>
       <c r="L3" t="n">
-        <v>3710970.77</v>
+        <v>4395235.44</v>
       </c>
       <c r="M3" t="n">
-        <v>3973208.02</v>
+        <v>4178010.87</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4168998.25</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4164002.9</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4178787.81</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4531341.95</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4521442.09</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4528650.65</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4777293.42</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4782571.38</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4773460.24</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4778553.12</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4777370.6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4786678.8</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5050699.18</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5058037.8</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>474972.72</v>
+        <v>563453.78</v>
       </c>
       <c r="C4" t="n">
-        <v>472594.6</v>
+        <v>562955.15</v>
       </c>
       <c r="D4" t="n">
-        <v>561024.89</v>
+        <v>540578.28</v>
       </c>
       <c r="E4" t="n">
-        <v>563065.3100000001</v>
+        <v>564191.89</v>
       </c>
       <c r="F4" t="n">
-        <v>564843.35</v>
+        <v>565255.72</v>
       </c>
       <c r="G4" t="n">
-        <v>561767.2</v>
+        <v>699170.23</v>
       </c>
       <c r="H4" t="n">
-        <v>565019.47</v>
+        <v>698744.5</v>
       </c>
       <c r="I4" t="n">
-        <v>561706.97</v>
+        <v>701105.22</v>
       </c>
       <c r="J4" t="n">
-        <v>562467.97</v>
+        <v>950192.27</v>
       </c>
       <c r="K4" t="n">
-        <v>563089.62</v>
+        <v>952859.7</v>
       </c>
       <c r="L4" t="n">
-        <v>563212.52</v>
+        <v>950132.28</v>
       </c>
       <c r="M4" t="n">
-        <v>563453.78</v>
+        <v>954561.0600000001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>951985.4399999999</v>
+      </c>
+      <c r="O4" t="n">
+        <v>951778.9399999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>953280.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1083866.17</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1081666.16</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1084843.07</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1083791.45</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1081469.28</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1080377.55</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1079530.65</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1079104.73</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1082605.31</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1536916.67</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1540062.55</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2243785.92</v>
+        <v>2244799.23</v>
       </c>
       <c r="C5" t="n">
-        <v>2249629.99</v>
+        <v>2244804.15</v>
       </c>
       <c r="D5" t="n">
-        <v>2250267.2</v>
+        <v>2156917.58</v>
       </c>
       <c r="E5" t="n">
-        <v>2249733.25</v>
+        <v>2250522.43</v>
       </c>
       <c r="F5" t="n">
-        <v>2246212.88</v>
+        <v>2243613.92</v>
       </c>
       <c r="G5" t="n">
-        <v>2247653.09</v>
+        <v>2245855.43</v>
       </c>
       <c r="H5" t="n">
-        <v>2249478.79</v>
+        <v>2244413.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2242552.15</v>
+        <v>2247070.07</v>
       </c>
       <c r="J5" t="n">
-        <v>2246180.55</v>
+        <v>2241773.05</v>
       </c>
       <c r="K5" t="n">
-        <v>2247383.88</v>
+        <v>2250291.92</v>
       </c>
       <c r="L5" t="n">
-        <v>2248172.81</v>
+        <v>2245748.05</v>
       </c>
       <c r="M5" t="n">
-        <v>2244799.23</v>
+        <v>2243251.52</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2241694.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2251105.38</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2247802.26</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2247387.85</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2248734.03</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2242438.6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2247232.37</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2241677.71</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2243027.92</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2252569.04</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2246345.27</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2242416.26</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1165294.57</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1165272.23</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4547640.7</v>
+        <v>3909834.46</v>
       </c>
       <c r="C6" t="n">
-        <v>4562501.4</v>
+        <v>3918409.94</v>
       </c>
       <c r="D6" t="n">
-        <v>4547409.31</v>
+        <v>3756954.34</v>
       </c>
       <c r="E6" t="n">
-        <v>4560871.75</v>
+        <v>3909696.64</v>
       </c>
       <c r="F6" t="n">
-        <v>4549282.35</v>
+        <v>3914565.49</v>
       </c>
       <c r="G6" t="n">
-        <v>4561268.23</v>
+        <v>3913045.72</v>
       </c>
       <c r="H6" t="n">
-        <v>4545796.5</v>
+        <v>3909332.26</v>
       </c>
       <c r="I6" t="n">
-        <v>3914980.98</v>
+        <v>3907623.88</v>
       </c>
       <c r="J6" t="n">
-        <v>3909022.44</v>
+        <v>3909270.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3912139.7</v>
+        <v>3914652.18</v>
       </c>
       <c r="L6" t="n">
-        <v>3907403.65</v>
+        <v>3919411.78</v>
       </c>
       <c r="M6" t="n">
-        <v>3909834.46</v>
+        <v>3907955.91</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3912225.77</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3911822.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3909640.57</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3908175.64</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3907404.81</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3908164.51</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3912085.86</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3907200.56</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3911546.66</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3915536.27</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3906914.16</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3913838.15</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3907151.48</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>3920304.38</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>143994.05</v>
+        <v>17177.85</v>
       </c>
       <c r="C7" t="n">
-        <v>143868.09</v>
+        <v>17105.08</v>
       </c>
       <c r="D7" t="n">
-        <v>144429.77</v>
+        <v>16463.41</v>
       </c>
       <c r="E7" t="n">
-        <v>143737.51</v>
+        <v>17106.78</v>
       </c>
       <c r="F7" t="n">
-        <v>143175.34</v>
+        <v>17124.77</v>
       </c>
       <c r="G7" t="n">
-        <v>143231.57</v>
+        <v>17180.4</v>
       </c>
       <c r="H7" t="n">
-        <v>143131.46</v>
+        <v>17137.29</v>
       </c>
       <c r="I7" t="n">
-        <v>143048.91</v>
+        <v>17162.24</v>
       </c>
       <c r="J7" t="n">
-        <v>143801.64</v>
+        <v>17147.45</v>
       </c>
       <c r="K7" t="n">
-        <v>17112.65</v>
+        <v>17142.96</v>
       </c>
       <c r="L7" t="n">
-        <v>17120.11</v>
+        <v>86709.00999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>17177.85</v>
+        <v>86557.47</v>
+      </c>
+      <c r="N7" t="n">
+        <v>86937.92</v>
+      </c>
+      <c r="O7" t="n">
+        <v>28399.13</v>
+      </c>
+      <c r="P7" t="n">
+        <v>27656.39</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>27624.63</v>
+      </c>
+      <c r="R7" t="n">
+        <v>27656.24</v>
+      </c>
+      <c r="S7" t="n">
+        <v>27600.06</v>
+      </c>
+      <c r="T7" t="n">
+        <v>27717.34</v>
+      </c>
+      <c r="U7" t="n">
+        <v>27683.78</v>
+      </c>
+      <c r="V7" t="n">
+        <v>27721.22</v>
+      </c>
+      <c r="W7" t="n">
+        <v>27687.33</v>
+      </c>
+      <c r="X7" t="n">
+        <v>27571.43</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>27730.94</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>27589.4</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26445.74</v>
       </c>
     </row>
     <row r="8">
@@ -760,292 +1082,640 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>488559.75</v>
+        <v>128109.63</v>
       </c>
       <c r="C8" t="n">
-        <v>482158.04</v>
+        <v>132323.62</v>
       </c>
       <c r="D8" t="n">
-        <v>228550.29</v>
+        <v>119848.79</v>
       </c>
       <c r="E8" t="n">
-        <v>137345.36</v>
+        <v>119900.57</v>
       </c>
       <c r="F8" t="n">
-        <v>129626.02</v>
+        <v>122325.59</v>
       </c>
       <c r="G8" t="n">
-        <v>125444</v>
+        <v>118763.61</v>
       </c>
       <c r="H8" t="n">
-        <v>130294.41</v>
+        <v>119133.66</v>
       </c>
       <c r="I8" t="n">
-        <v>136569.84</v>
+        <v>127177.68</v>
       </c>
       <c r="J8" t="n">
-        <v>135695.73</v>
+        <v>124173.17</v>
       </c>
       <c r="K8" t="n">
-        <v>136519.62</v>
+        <v>129448.87</v>
       </c>
       <c r="L8" t="n">
-        <v>136292.65</v>
+        <v>119219.71</v>
       </c>
       <c r="M8" t="n">
-        <v>128109.63</v>
-      </c>
+        <v>114283.93</v>
+      </c>
+      <c r="N8" t="n">
+        <v>118471.37</v>
+      </c>
+      <c r="O8" t="n">
+        <v>123068.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>130492.6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>131814.92</v>
+      </c>
+      <c r="R8" t="n">
+        <v>132274.91</v>
+      </c>
+      <c r="S8" t="n">
+        <v>127414.91</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>280180.48</v>
-      </c>
+          <t>Compass Crecimiento</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>279356.59</v>
-      </c>
-      <c r="E9" t="n">
-        <v>278843.11</v>
-      </c>
-      <c r="F9" t="n">
-        <v>281552.55</v>
-      </c>
-      <c r="G9" t="n">
-        <v>279678.97</v>
-      </c>
-      <c r="H9" t="n">
-        <v>282489.52</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>281216.87</v>
+        <v>131195.42</v>
       </c>
       <c r="J9" t="n">
-        <v>281900.86</v>
+        <v>125913.8</v>
       </c>
       <c r="K9" t="n">
-        <v>279208.73</v>
+        <v>129805.88</v>
       </c>
       <c r="L9" t="n">
-        <v>279068.06</v>
+        <v>133178.29</v>
       </c>
       <c r="M9" t="n">
-        <v>280264.67</v>
+        <v>136095.9</v>
+      </c>
+      <c r="N9" t="n">
+        <v>139579.45</v>
+      </c>
+      <c r="O9" t="n">
+        <v>140421.85</v>
+      </c>
+      <c r="P9" t="n">
+        <v>143975.39</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>117340.52</v>
+      </c>
+      <c r="R9" t="n">
+        <v>115873.49</v>
+      </c>
+      <c r="S9" t="n">
+        <v>147141.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>122311.09</v>
+      </c>
+      <c r="U9" t="n">
+        <v>134398.97</v>
+      </c>
+      <c r="V9" t="n">
+        <v>133371.9</v>
+      </c>
+      <c r="W9" t="n">
+        <v>142511.32</v>
+      </c>
+      <c r="X9" t="n">
+        <v>135411.14</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>128638.05</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>47291.53</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>48854.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156779.61</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>280264.67</v>
+      </c>
+      <c r="C10" t="n">
+        <v>279077.32</v>
+      </c>
       <c r="D10" t="n">
-        <v>156569.59</v>
+        <v>269790.33</v>
       </c>
       <c r="E10" t="n">
-        <v>156673.24</v>
+        <v>279182.64</v>
       </c>
       <c r="F10" t="n">
-        <v>156668.16</v>
+        <v>279551.36</v>
       </c>
       <c r="G10" t="n">
-        <v>156724.72</v>
+        <v>278325.6</v>
       </c>
       <c r="H10" t="n">
-        <v>156780.84</v>
+        <v>282522.85</v>
       </c>
       <c r="I10" t="n">
-        <v>156737.36</v>
+        <v>280213.03</v>
       </c>
       <c r="J10" t="n">
-        <v>156597.67</v>
+        <v>279415.01</v>
       </c>
       <c r="K10" t="n">
-        <v>156692.97</v>
+        <v>279610.63</v>
       </c>
       <c r="L10" t="n">
-        <v>156636.38</v>
+        <v>282606.29</v>
       </c>
       <c r="M10" t="n">
-        <v>156602.04</v>
+        <v>278947.78</v>
+      </c>
+      <c r="N10" t="n">
+        <v>280375.73</v>
+      </c>
+      <c r="O10" t="n">
+        <v>282486</v>
+      </c>
+      <c r="P10" t="n">
+        <v>281136.84</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>281738.77</v>
+      </c>
+      <c r="R10" t="n">
+        <v>279930.17</v>
+      </c>
+      <c r="S10" t="n">
+        <v>282008</v>
+      </c>
+      <c r="T10" t="n">
+        <v>280582.68</v>
+      </c>
+      <c r="U10" t="n">
+        <v>278198.45</v>
+      </c>
+      <c r="V10" t="n">
+        <v>281515.32</v>
+      </c>
+      <c r="W10" t="n">
+        <v>483091.03</v>
+      </c>
+      <c r="X10" t="n">
+        <v>482599.51</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>443742.73</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>443487.25</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>445063.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>250911.45</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>156602.04</v>
+      </c>
+      <c r="C11" t="n">
+        <v>156798.19</v>
+      </c>
       <c r="D11" t="n">
-        <v>250841.35</v>
+        <v>150753.04</v>
       </c>
       <c r="E11" t="n">
-        <v>250728.77</v>
+        <v>156627.43</v>
       </c>
       <c r="F11" t="n">
-        <v>250926.84</v>
+        <v>156580.95</v>
       </c>
       <c r="G11" t="n">
-        <v>250967.51</v>
+        <v>156772.42</v>
       </c>
       <c r="H11" t="n">
-        <v>250864.98</v>
+        <v>156712.2</v>
       </c>
       <c r="I11" t="n">
-        <v>250700.64</v>
+        <v>156617.6</v>
       </c>
       <c r="J11" t="n">
-        <v>250682.49</v>
+        <v>156597.51</v>
       </c>
       <c r="K11" t="n">
-        <v>250802.15</v>
+        <v>156726</v>
       </c>
       <c r="L11" t="n">
-        <v>250853.42</v>
+        <v>156782.53</v>
       </c>
       <c r="M11" t="n">
-        <v>250898.01</v>
+        <v>156644.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>156585.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>156602.95</v>
+      </c>
+      <c r="P11" t="n">
+        <v>156784.47</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>156765.38</v>
+      </c>
+      <c r="R11" t="n">
+        <v>156615.45</v>
+      </c>
+      <c r="S11" t="n">
+        <v>156762.8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>156660.61</v>
+      </c>
+      <c r="U11" t="n">
+        <v>156631.11</v>
+      </c>
+      <c r="V11" t="n">
+        <v>156633.48</v>
+      </c>
+      <c r="W11" t="n">
+        <v>156802.32</v>
+      </c>
+      <c r="X11" t="n">
+        <v>156682.95</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>156788.74</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>156721.11</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>156694.82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5591096.83</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>250898.01</v>
+      </c>
+      <c r="C12" t="n">
+        <v>250795.94</v>
+      </c>
       <c r="D12" t="n">
-        <v>5448365.37</v>
+        <v>241111.43</v>
       </c>
       <c r="E12" t="n">
-        <v>5449672.05</v>
+        <v>250780.91</v>
       </c>
       <c r="F12" t="n">
-        <v>5443011.15</v>
+        <v>250829.9</v>
       </c>
       <c r="G12" t="n">
-        <v>5442534.72</v>
+        <v>250750.25</v>
       </c>
       <c r="H12" t="n">
-        <v>5449603.21</v>
+        <v>250910.96</v>
       </c>
       <c r="I12" t="n">
-        <v>5450798.61</v>
+        <v>250982.57</v>
       </c>
       <c r="J12" t="n">
-        <v>5446289.64</v>
+        <v>250789.08</v>
       </c>
       <c r="K12" t="n">
-        <v>5448203.74</v>
+        <v>250655.43</v>
       </c>
       <c r="L12" t="n">
-        <v>5450351.82</v>
+        <v>250658.79</v>
       </c>
       <c r="M12" t="n">
-        <v>5445248.73</v>
+        <v>250721.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>250715.24</v>
+      </c>
+      <c r="O12" t="n">
+        <v>250693.88</v>
+      </c>
+      <c r="P12" t="n">
+        <v>250676.89</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>250818.53</v>
+      </c>
+      <c r="R12" t="n">
+        <v>250943.55</v>
+      </c>
+      <c r="S12" t="n">
+        <v>250888.52</v>
+      </c>
+      <c r="T12" t="n">
+        <v>250901.36</v>
+      </c>
+      <c r="U12" t="n">
+        <v>250843.13</v>
+      </c>
+      <c r="V12" t="n">
+        <v>250869.56</v>
+      </c>
+      <c r="W12" t="n">
+        <v>250829.83</v>
+      </c>
+      <c r="X12" t="n">
+        <v>250948.25</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>250682.54</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>251015.68</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>250606.56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4893135.39</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>5445248.73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5447914.65</v>
+      </c>
       <c r="D13" t="n">
-        <v>4821760.27</v>
+        <v>5240695.31</v>
       </c>
       <c r="E13" t="n">
-        <v>4748455.9</v>
+        <v>5444096.28</v>
       </c>
       <c r="F13" t="n">
-        <v>4755443.81</v>
+        <v>5444225.88</v>
       </c>
       <c r="G13" t="n">
-        <v>4746124.25</v>
+        <v>5447992.93</v>
       </c>
       <c r="H13" t="n">
-        <v>4752207.38</v>
+        <v>5446049.64</v>
       </c>
       <c r="I13" t="n">
-        <v>4755914.85</v>
+        <v>5447994.36</v>
       </c>
       <c r="J13" t="n">
-        <v>4736198.46</v>
+        <v>5446471.69</v>
       </c>
       <c r="K13" t="n">
-        <v>4748918.42</v>
+        <v>5450769.1</v>
       </c>
       <c r="L13" t="n">
-        <v>4754098.57</v>
+        <v>5447324.3</v>
       </c>
       <c r="M13" t="n">
-        <v>4740478.55</v>
+        <v>5442465.67</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5444679.46</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5441856.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5448730.74</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5449841.51</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5450013.13</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5446390.81</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5610344.44</v>
+      </c>
+      <c r="U13" t="n">
+        <v>5614972.45</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5620246.47</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5621871.97</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5617196.78</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5621881.24</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>5611613.49</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5621461.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>986827.87</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>4740478.55</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4753855.86</v>
+      </c>
       <c r="D14" t="n">
-        <v>798198.02</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+        <v>4555069.14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4752929.32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4737438.23</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4734316.75</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4748760.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4756220.63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4751590.57</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4751371.17</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4732175.28</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4755577.41</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4745421.27</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4750875.93</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4744090.29</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4752692.43</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4750441.91</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4754545.85</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4736953.77</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4756755.27</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4745690.72</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4753947.82</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4744878.83</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4749937.69</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>4732894.67</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4746465.08</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>958088.42</v>
-      </c>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>788917.15</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>344669.93</v>
+      </c>
+      <c r="G15" t="n">
+        <v>342392.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>356303.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>359940.33</v>
+      </c>
+      <c r="J15" t="n">
+        <v>345368.43</v>
+      </c>
+      <c r="K15" t="n">
+        <v>358715.05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>346172.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>355429.74</v>
+      </c>
+      <c r="N15" t="n">
+        <v>289397.67</v>
+      </c>
+      <c r="O15" t="n">
+        <v>282662.05</v>
+      </c>
+      <c r="P15" t="n">
+        <v>270971.67</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>285710.04</v>
+      </c>
+      <c r="R15" t="n">
+        <v>275307.67</v>
+      </c>
+      <c r="S15" t="n">
+        <v>276003.36</v>
+      </c>
+      <c r="T15" t="n">
+        <v>278388.94</v>
+      </c>
+      <c r="U15" t="n">
+        <v>277490.37</v>
+      </c>
+      <c r="V15" t="n">
+        <v>281005.37</v>
+      </c>
+      <c r="W15" t="n">
+        <v>275236.11</v>
+      </c>
+      <c r="X15" t="n">
+        <v>277197.59</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>280006.82</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>274093.39</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>283516.61</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1054,38 +1724,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1238457.64</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>1319907.72</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1322571.9</v>
+      </c>
       <c r="D16" t="n">
-        <v>1224141.02</v>
+        <v>1276144.09</v>
       </c>
       <c r="E16" t="n">
-        <v>1341680.07</v>
+        <v>1323842.46</v>
       </c>
       <c r="F16" t="n">
-        <v>1291280.28</v>
+        <v>1433728.84</v>
       </c>
       <c r="G16" t="n">
-        <v>1306950.62</v>
+        <v>1694479.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1303314.6</v>
+        <v>1672968.39</v>
       </c>
       <c r="I16" t="n">
-        <v>1397009.92</v>
+        <v>1754683.78</v>
       </c>
       <c r="J16" t="n">
-        <v>1403648.36</v>
+        <v>1859859.45</v>
       </c>
       <c r="K16" t="n">
-        <v>1401550.55</v>
+        <v>1851896.96</v>
       </c>
       <c r="L16" t="n">
-        <v>1387744.29</v>
+        <v>1866776.09</v>
       </c>
       <c r="M16" t="n">
-        <v>1319907.72</v>
+        <v>2684233.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2694259.12</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2701444.24</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2712458.51</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2774500.22</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2778612.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2750971.09</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2767149.77</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2172488.45</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2213346.96</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2233744.61</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2243490.71</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1117031.97</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1107202.35</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1118849.75</v>
       </c>
     </row>
     <row r="17">
@@ -1095,40 +1809,82 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2689607.22</v>
+        <v>2788346.13</v>
       </c>
       <c r="C17" t="n">
-        <v>2746566.57</v>
+        <v>2727954.26</v>
       </c>
       <c r="D17" t="n">
-        <v>2788194.61</v>
+        <v>2623880.84</v>
       </c>
       <c r="E17" t="n">
-        <v>2792287.68</v>
+        <v>2681533.26</v>
       </c>
       <c r="F17" t="n">
-        <v>2791049.78</v>
+        <v>2737364.71</v>
       </c>
       <c r="G17" t="n">
-        <v>2785384.15</v>
+        <v>2881719.69</v>
       </c>
       <c r="H17" t="n">
-        <v>2785968.66</v>
+        <v>2872933.02</v>
       </c>
       <c r="I17" t="n">
-        <v>2778975.33</v>
+        <v>3061640.04</v>
       </c>
       <c r="J17" t="n">
-        <v>2789632.35</v>
+        <v>3062305.93</v>
       </c>
       <c r="K17" t="n">
-        <v>2779672.82</v>
+        <v>3054903.85</v>
       </c>
       <c r="L17" t="n">
-        <v>2786051.18</v>
+        <v>3050201.87</v>
       </c>
       <c r="M17" t="n">
-        <v>2788346.13</v>
+        <v>3060689.7</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3065262.46</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3057209.37</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3063243.47</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3094307.04</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3130400.42</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3126039.59</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3129728.97</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2588469.62</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2593416.94</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2602387.08</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2644078.81</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2598473.02</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2544612.82</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2544917.26</v>
       </c>
     </row>
     <row r="18">
@@ -1138,40 +1894,82 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34978162.49</v>
+        <v>37970488.44</v>
       </c>
       <c r="C18" t="n">
-        <v>35247486.51</v>
+        <v>37991295.88</v>
       </c>
       <c r="D18" t="n">
-        <v>35249384.38</v>
+        <v>36570383.25</v>
       </c>
       <c r="E18" t="n">
-        <v>35241934</v>
+        <v>37999422.18</v>
       </c>
       <c r="F18" t="n">
-        <v>36268616.48</v>
+        <v>38008363.74</v>
       </c>
       <c r="G18" t="n">
-        <v>36255393.85</v>
+        <v>37997021.2</v>
       </c>
       <c r="H18" t="n">
-        <v>36241319.01</v>
+        <v>37971840.94</v>
       </c>
       <c r="I18" t="n">
-        <v>36237809.81</v>
+        <v>37984134.07</v>
       </c>
       <c r="J18" t="n">
-        <v>36273450.56</v>
+        <v>40024654.45</v>
       </c>
       <c r="K18" t="n">
-        <v>38023404.26</v>
+        <v>40016156.31</v>
       </c>
       <c r="L18" t="n">
-        <v>38025630.31</v>
+        <v>39982057.15</v>
       </c>
       <c r="M18" t="n">
-        <v>37970488.44</v>
+        <v>39965796.85</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39972646.62</v>
+      </c>
+      <c r="O18" t="n">
+        <v>40011798.15</v>
+      </c>
+      <c r="P18" t="n">
+        <v>40028271.7</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>40012309.58</v>
+      </c>
+      <c r="R18" t="n">
+        <v>39972360.39</v>
+      </c>
+      <c r="S18" t="n">
+        <v>40025092.11</v>
+      </c>
+      <c r="T18" t="n">
+        <v>39469248.05</v>
+      </c>
+      <c r="U18" t="n">
+        <v>38496800.65</v>
+      </c>
+      <c r="V18" t="n">
+        <v>36501909.76</v>
+      </c>
+      <c r="W18" t="n">
+        <v>36489763.4</v>
+      </c>
+      <c r="X18" t="n">
+        <v>36450478.99</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>36183332.29</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>35208351.44</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>35160078.17</v>
       </c>
     </row>
     <row r="19">
@@ -1181,40 +1979,82 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571901.09</v>
+        <v>578677.61</v>
       </c>
       <c r="C19" t="n">
-        <v>572507.54</v>
+        <v>577242.4</v>
       </c>
       <c r="D19" t="n">
-        <v>503173.52</v>
+        <v>555968.61</v>
       </c>
       <c r="E19" t="n">
-        <v>504018.71</v>
+        <v>578561</v>
       </c>
       <c r="F19" t="n">
-        <v>503778.59</v>
+        <v>576955.0600000001</v>
       </c>
       <c r="G19" t="n">
-        <v>503108.3</v>
+        <v>577141.13</v>
       </c>
       <c r="H19" t="n">
-        <v>503076.66</v>
+        <v>578506.1</v>
       </c>
       <c r="I19" t="n">
-        <v>578936.66</v>
+        <v>576927.11</v>
       </c>
       <c r="J19" t="n">
-        <v>578507.16</v>
+        <v>577158.3100000001</v>
       </c>
       <c r="K19" t="n">
-        <v>578189.21</v>
+        <v>577643.85</v>
       </c>
       <c r="L19" t="n">
-        <v>578339.01</v>
+        <v>578924.72</v>
       </c>
       <c r="M19" t="n">
-        <v>578677.61</v>
+        <v>578742.61</v>
+      </c>
+      <c r="N19" t="n">
+        <v>578618.25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>579024.42</v>
+      </c>
+      <c r="P19" t="n">
+        <v>579157.47</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>776875.1899999999</v>
+      </c>
+      <c r="R19" t="n">
+        <v>777644.67</v>
+      </c>
+      <c r="S19" t="n">
+        <v>778629.53</v>
+      </c>
+      <c r="T19" t="n">
+        <v>778532.24</v>
+      </c>
+      <c r="U19" t="n">
+        <v>778116.0600000001</v>
+      </c>
+      <c r="V19" t="n">
+        <v>778316.41</v>
+      </c>
+      <c r="W19" t="n">
+        <v>779486.54</v>
+      </c>
+      <c r="X19" t="n">
+        <v>779732.08</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>776404.38</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>779433.8</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>778778.24</v>
       </c>
     </row>
     <row r="20">
@@ -1224,40 +2064,82 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10033.82</v>
+        <v>10194.9</v>
       </c>
       <c r="C20" t="n">
-        <v>10218.84</v>
+        <v>10446</v>
       </c>
       <c r="D20" t="n">
-        <v>10222.47</v>
+        <v>10094.84</v>
       </c>
       <c r="E20" t="n">
-        <v>9973.15</v>
+        <v>10016.66</v>
       </c>
       <c r="F20" t="n">
-        <v>10361.53</v>
+        <v>10418.61</v>
       </c>
       <c r="G20" t="n">
-        <v>10031.78</v>
+        <v>9948.049999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>10410.74</v>
+        <v>10034.87</v>
       </c>
       <c r="I20" t="n">
-        <v>10477.52</v>
+        <v>9868.969999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>10380.89</v>
+        <v>10144.47</v>
       </c>
       <c r="K20" t="n">
-        <v>10458.56</v>
+        <v>10119.85</v>
       </c>
       <c r="L20" t="n">
-        <v>10356.34</v>
+        <v>9934.049999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>10194.9</v>
+        <v>10206.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10545.94</v>
+      </c>
+      <c r="O20" t="n">
+        <v>10542.87</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10426.28</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>10004.2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>10018.43</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10270.75</v>
+      </c>
+      <c r="T20" t="n">
+        <v>10034.85</v>
+      </c>
+      <c r="U20" t="n">
+        <v>10266.97</v>
+      </c>
+      <c r="V20" t="n">
+        <v>10068.18</v>
+      </c>
+      <c r="W20" t="n">
+        <v>10056.85</v>
+      </c>
+      <c r="X20" t="n">
+        <v>10499.82</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10273.52</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>10464.98</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>10385.24</v>
       </c>
     </row>
     <row r="21">
@@ -1267,40 +2149,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1110944.81</v>
+        <v>814854.75</v>
       </c>
       <c r="C21" t="n">
-        <v>1114191.59</v>
+        <v>736735.05</v>
       </c>
       <c r="D21" t="n">
-        <v>1115822.33</v>
+        <v>712985.5600000001</v>
       </c>
       <c r="E21" t="n">
-        <v>1113916.46</v>
+        <v>689890.61</v>
       </c>
       <c r="F21" t="n">
-        <v>1116191.21</v>
+        <v>688745.9300000001</v>
       </c>
       <c r="G21" t="n">
-        <v>1117482.94</v>
+        <v>639001.35</v>
       </c>
       <c r="H21" t="n">
-        <v>1067985.71</v>
+        <v>638219.8199999999</v>
       </c>
       <c r="I21" t="n">
-        <v>960983.92</v>
+        <v>741203.1899999999</v>
       </c>
       <c r="J21" t="n">
-        <v>915590.95</v>
+        <v>736676.1899999999</v>
       </c>
       <c r="K21" t="n">
-        <v>912386.39</v>
+        <v>739531.95</v>
       </c>
       <c r="L21" t="n">
-        <v>811623.13</v>
+        <v>739428.0699999999</v>
       </c>
       <c r="M21" t="n">
-        <v>814854.75</v>
+        <v>736273.13</v>
+      </c>
+      <c r="N21" t="n">
+        <v>836379.5600000001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>839262.02</v>
+      </c>
+      <c r="P21" t="n">
+        <v>837066.17</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>839915.24</v>
+      </c>
+      <c r="R21" t="n">
+        <v>839859.23</v>
+      </c>
+      <c r="S21" t="n">
+        <v>889925.12</v>
+      </c>
+      <c r="T21" t="n">
+        <v>888340.1800000001</v>
+      </c>
+      <c r="U21" t="n">
+        <v>886026.14</v>
+      </c>
+      <c r="V21" t="n">
+        <v>891496.63</v>
+      </c>
+      <c r="W21" t="n">
+        <v>892326.97</v>
+      </c>
+      <c r="X21" t="n">
+        <v>992010.65</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>992217.55</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>985426.36</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>992123.23</v>
       </c>
     </row>
     <row r="22">
@@ -1310,40 +2234,82 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2532721.25</v>
+        <v>2173083.17</v>
       </c>
       <c r="C22" t="n">
-        <v>2532858.42</v>
+        <v>2177444.79</v>
       </c>
       <c r="D22" t="n">
-        <v>2234639.69</v>
+        <v>2093857.48</v>
       </c>
       <c r="E22" t="n">
-        <v>2230789.12</v>
+        <v>2176828.49</v>
       </c>
       <c r="F22" t="n">
-        <v>2236250.23</v>
+        <v>2175505.46</v>
       </c>
       <c r="G22" t="n">
-        <v>2236189.03</v>
+        <v>2173935.29</v>
       </c>
       <c r="H22" t="n">
-        <v>2239155.35</v>
+        <v>2172186.63</v>
       </c>
       <c r="I22" t="n">
-        <v>2233492.64</v>
+        <v>2282249.66</v>
       </c>
       <c r="J22" t="n">
-        <v>2232783.41</v>
+        <v>2281441.67</v>
       </c>
       <c r="K22" t="n">
-        <v>2235960.35</v>
+        <v>2280634.19</v>
       </c>
       <c r="L22" t="n">
-        <v>2172240.8</v>
+        <v>2280605.51</v>
       </c>
       <c r="M22" t="n">
-        <v>2173083.17</v>
+        <v>2277338.6</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2274997.22</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2275393.69</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2281661.31</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2274083.59</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2280535.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2282863.32</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2244275.29</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2248516.62</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2441496.99</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2447208.56</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2450493.33</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2400927.18</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2397681.73</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2399748.17</v>
       </c>
     </row>
     <row r="23">
@@ -1353,40 +2319,82 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467361.57</v>
+        <v>675452.55</v>
       </c>
       <c r="C23" t="n">
-        <v>488019.84</v>
+        <v>676981.79</v>
       </c>
       <c r="D23" t="n">
-        <v>626333.74</v>
+        <v>632521.1</v>
       </c>
       <c r="E23" t="n">
-        <v>656303.49</v>
+        <v>651315.35</v>
       </c>
       <c r="F23" t="n">
-        <v>650267.2</v>
+        <v>664282.4</v>
       </c>
       <c r="G23" t="n">
-        <v>651944.02</v>
+        <v>701789.17</v>
       </c>
       <c r="H23" t="n">
-        <v>770808.65</v>
+        <v>722126.16</v>
       </c>
       <c r="I23" t="n">
-        <v>772569.45</v>
+        <v>749517.45</v>
       </c>
       <c r="J23" t="n">
-        <v>771328.89</v>
+        <v>760509.42</v>
       </c>
       <c r="K23" t="n">
-        <v>772137.0699999999</v>
+        <v>801390.3</v>
       </c>
       <c r="L23" t="n">
-        <v>767007.64</v>
+        <v>799231.65</v>
       </c>
       <c r="M23" t="n">
-        <v>675452.55</v>
+        <v>930821.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>926947.8199999999</v>
+      </c>
+      <c r="O23" t="n">
+        <v>953928.54</v>
+      </c>
+      <c r="P23" t="n">
+        <v>977504.48</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>979185.22</v>
+      </c>
+      <c r="R23" t="n">
+        <v>975931.4300000001</v>
+      </c>
+      <c r="S23" t="n">
+        <v>977143.15</v>
+      </c>
+      <c r="T23" t="n">
+        <v>853895.67</v>
+      </c>
+      <c r="U23" t="n">
+        <v>742297.87</v>
+      </c>
+      <c r="V23" t="n">
+        <v>724931.4300000001</v>
+      </c>
+      <c r="W23" t="n">
+        <v>710999.83</v>
+      </c>
+      <c r="X23" t="n">
+        <v>739754.33</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>614195.96</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>673621.05</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>669938.49</v>
       </c>
     </row>
     <row r="24">
@@ -1396,41 +2404,77 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>53505.18</v>
+        <v>61183.44</v>
       </c>
       <c r="C24" t="n">
-        <v>53562.38</v>
+        <v>61021.1</v>
       </c>
       <c r="D24" t="n">
-        <v>61008.86</v>
+        <v>58698.64</v>
       </c>
       <c r="E24" t="n">
-        <v>61080.24</v>
+        <v>61036.19</v>
       </c>
       <c r="F24" t="n">
-        <v>61330.33</v>
+        <v>61106.5</v>
       </c>
       <c r="G24" t="n">
-        <v>61115.88</v>
+        <v>60935.1</v>
       </c>
       <c r="H24" t="n">
-        <v>61275.22</v>
+        <v>61139.86</v>
       </c>
       <c r="I24" t="n">
-        <v>60987.94</v>
+        <v>60925.06</v>
       </c>
       <c r="J24" t="n">
-        <v>61046.1</v>
+        <v>60903.16</v>
       </c>
       <c r="K24" t="n">
-        <v>61232.93</v>
+        <v>60919.51</v>
       </c>
       <c r="L24" t="n">
-        <v>61147.98</v>
+        <v>61075.66</v>
       </c>
       <c r="M24" t="n">
-        <v>61183.44</v>
-      </c>
+        <v>60886.4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>60922.14</v>
+      </c>
+      <c r="O24" t="n">
+        <v>60818.88</v>
+      </c>
+      <c r="P24" t="n">
+        <v>61197.76</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>61196.05</v>
+      </c>
+      <c r="R24" t="n">
+        <v>61177.62</v>
+      </c>
+      <c r="S24" t="n">
+        <v>61090.17</v>
+      </c>
+      <c r="T24" t="n">
+        <v>60864.22</v>
+      </c>
+      <c r="U24" t="n">
+        <v>60857.89</v>
+      </c>
+      <c r="V24" t="n">
+        <v>60889.12</v>
+      </c>
+      <c r="W24" t="n">
+        <v>60962.09</v>
+      </c>
+      <c r="X24" t="n">
+        <v>57712.56</v>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1439,40 +2483,82 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527821.1800000001</v>
+        <v>615600.77</v>
       </c>
       <c r="C25" t="n">
-        <v>577488.4300000001</v>
+        <v>616038.4</v>
       </c>
       <c r="D25" t="n">
-        <v>669025.4300000001</v>
+        <v>591888.73</v>
       </c>
       <c r="E25" t="n">
-        <v>715707.58</v>
+        <v>655884.52</v>
       </c>
       <c r="F25" t="n">
-        <v>614705.9399999999</v>
+        <v>655200.9399999999</v>
       </c>
       <c r="G25" t="n">
-        <v>615171.67</v>
+        <v>658701.48</v>
       </c>
       <c r="H25" t="n">
-        <v>617496.6800000001</v>
+        <v>656953.13</v>
       </c>
       <c r="I25" t="n">
-        <v>614491.1</v>
+        <v>657728.6</v>
       </c>
       <c r="J25" t="n">
-        <v>615296.84</v>
+        <v>654781.6800000001</v>
       </c>
       <c r="K25" t="n">
-        <v>614710.71</v>
+        <v>654837.45</v>
       </c>
       <c r="L25" t="n">
-        <v>618004.24</v>
+        <v>656499.4</v>
       </c>
       <c r="M25" t="n">
-        <v>615600.77</v>
+        <v>918197.85</v>
+      </c>
+      <c r="N25" t="n">
+        <v>825091.89</v>
+      </c>
+      <c r="O25" t="n">
+        <v>821980</v>
+      </c>
+      <c r="P25" t="n">
+        <v>820637.26</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>824625.54</v>
+      </c>
+      <c r="R25" t="n">
+        <v>822079.35</v>
+      </c>
+      <c r="S25" t="n">
+        <v>911224.95</v>
+      </c>
+      <c r="T25" t="n">
+        <v>952696.83</v>
+      </c>
+      <c r="U25" t="n">
+        <v>843938.26</v>
+      </c>
+      <c r="V25" t="n">
+        <v>886366.35</v>
+      </c>
+      <c r="W25" t="n">
+        <v>882540.9300000001</v>
+      </c>
+      <c r="X25" t="n">
+        <v>882198.79</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>961409.36</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>881191.12</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>870292.11</v>
       </c>
     </row>
     <row r="26">
@@ -1482,40 +2568,82 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>404728.96</v>
+        <v>404093.04</v>
       </c>
       <c r="C26" t="n">
-        <v>405310.49</v>
+        <v>405450.76</v>
       </c>
       <c r="D26" t="n">
-        <v>403835.28</v>
+        <v>388990.21</v>
       </c>
       <c r="E26" t="n">
-        <v>403697.32</v>
+        <v>403937.93</v>
       </c>
       <c r="F26" t="n">
-        <v>404988.91</v>
+        <v>404777.08</v>
       </c>
       <c r="G26" t="n">
-        <v>403662.09</v>
+        <v>403784.08</v>
       </c>
       <c r="H26" t="n">
-        <v>404935.79</v>
+        <v>404513.97</v>
       </c>
       <c r="I26" t="n">
-        <v>405682.8</v>
+        <v>404147.07</v>
       </c>
       <c r="J26" t="n">
-        <v>405039.97</v>
+        <v>405555.43</v>
       </c>
       <c r="K26" t="n">
-        <v>404516.47</v>
+        <v>404314.18</v>
       </c>
       <c r="L26" t="n">
-        <v>404332.67</v>
+        <v>404563.54</v>
       </c>
       <c r="M26" t="n">
-        <v>404093.04</v>
+        <v>405205.56</v>
+      </c>
+      <c r="N26" t="n">
+        <v>404466.98</v>
+      </c>
+      <c r="O26" t="n">
+        <v>405635.37</v>
+      </c>
+      <c r="P26" t="n">
+        <v>405907.59</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>403887.49</v>
+      </c>
+      <c r="R26" t="n">
+        <v>405483.22</v>
+      </c>
+      <c r="S26" t="n">
+        <v>405386.1</v>
+      </c>
+      <c r="T26" t="n">
+        <v>307812.66</v>
+      </c>
+      <c r="U26" t="n">
+        <v>308351.18</v>
+      </c>
+      <c r="V26" t="n">
+        <v>308567.14</v>
+      </c>
+      <c r="W26" t="n">
+        <v>360800.32</v>
+      </c>
+      <c r="X26" t="n">
+        <v>360707.12</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>360324.36</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>492904.51</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>493282.06</v>
       </c>
     </row>
     <row r="27">
@@ -1525,38 +2653,82 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>936650.5600000001</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>942278.01</v>
+      </c>
+      <c r="C27" t="n">
+        <v>939011.78</v>
+      </c>
       <c r="D27" t="n">
-        <v>938374.1800000001</v>
+        <v>906394.01</v>
       </c>
       <c r="E27" t="n">
-        <v>939438.1899999999</v>
+        <v>937231.71</v>
       </c>
       <c r="F27" t="n">
-        <v>940515.9399999999</v>
+        <v>940654.63</v>
       </c>
       <c r="G27" t="n">
-        <v>939075.53</v>
+        <v>937275.8199999999</v>
       </c>
       <c r="H27" t="n">
-        <v>940000.59</v>
+        <v>941326.28</v>
       </c>
       <c r="I27" t="n">
-        <v>942852.0699999999</v>
+        <v>935812.1800000001</v>
       </c>
       <c r="J27" t="n">
-        <v>938753.14</v>
+        <v>939779.87</v>
       </c>
       <c r="K27" t="n">
-        <v>942040.46</v>
+        <v>937323.74</v>
       </c>
       <c r="L27" t="n">
-        <v>938375.88</v>
+        <v>936453</v>
       </c>
       <c r="M27" t="n">
-        <v>942278.01</v>
+        <v>940864.0600000001</v>
+      </c>
+      <c r="N27" t="n">
+        <v>937361.83</v>
+      </c>
+      <c r="O27" t="n">
+        <v>937928.99</v>
+      </c>
+      <c r="P27" t="n">
+        <v>935557.21</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>942984.51</v>
+      </c>
+      <c r="R27" t="n">
+        <v>940503.55</v>
+      </c>
+      <c r="S27" t="n">
+        <v>937886.65</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1484937.12</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1482019.09</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1486484.9</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1480826.3</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1851383.87</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1649530.04</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1645161.79</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1653032.83</v>
       </c>
     </row>
     <row r="28">
@@ -1566,40 +2738,82 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1411757.85</v>
+        <v>1557655.36</v>
       </c>
       <c r="C28" t="n">
-        <v>1407218.71</v>
+        <v>1562337.03</v>
       </c>
       <c r="D28" t="n">
-        <v>1407383.45</v>
+        <v>1499177.5</v>
       </c>
       <c r="E28" t="n">
-        <v>1416616.66</v>
+        <v>1561738.4</v>
       </c>
       <c r="F28" t="n">
-        <v>1411662.15</v>
+        <v>1561724.76</v>
       </c>
       <c r="G28" t="n">
-        <v>1559843.51</v>
+        <v>1559700.75</v>
       </c>
       <c r="H28" t="n">
-        <v>1557948.48</v>
+        <v>1558080.53</v>
       </c>
       <c r="I28" t="n">
-        <v>1559645.43</v>
+        <v>1564455.45</v>
       </c>
       <c r="J28" t="n">
-        <v>1559536.85</v>
+        <v>1557584.23</v>
       </c>
       <c r="K28" t="n">
-        <v>1563043.66</v>
+        <v>1567103.18</v>
       </c>
       <c r="L28" t="n">
-        <v>1566226.74</v>
+        <v>1566523.18</v>
       </c>
       <c r="M28" t="n">
-        <v>1557655.36</v>
+        <v>1565441.38</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1560803</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1564973.85</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1562257.52</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1557416.38</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1570096.93</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1565339.73</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1561310.26</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1563533.34</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1568403.03</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1564715.78</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1557438.61</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1562822.18</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1553427.14</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1558029.91</v>
       </c>
     </row>
     <row r="29">
@@ -1609,40 +2823,82 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29979.9</v>
+        <v>599125.27</v>
       </c>
       <c r="C29" t="n">
-        <v>29113.3</v>
+        <v>601816.9300000001</v>
       </c>
       <c r="D29" t="n">
-        <v>31247.85</v>
+        <v>577613.4</v>
       </c>
       <c r="E29" t="n">
-        <v>29933.74</v>
+        <v>601915.76</v>
       </c>
       <c r="F29" t="n">
-        <v>29194.99</v>
+        <v>600917.1</v>
       </c>
       <c r="G29" t="n">
-        <v>31972.85</v>
+        <v>598164.5600000001</v>
       </c>
       <c r="H29" t="n">
-        <v>30463.41</v>
+        <v>598073.64</v>
       </c>
       <c r="I29" t="n">
-        <v>382036.29</v>
+        <v>598566.13</v>
       </c>
       <c r="J29" t="n">
-        <v>501992.11</v>
+        <v>599276</v>
       </c>
       <c r="K29" t="n">
-        <v>499548.43</v>
+        <v>599706.46</v>
       </c>
       <c r="L29" t="n">
-        <v>599995.17</v>
+        <v>600984.05</v>
       </c>
       <c r="M29" t="n">
-        <v>599125.27</v>
+        <v>600522.3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>600953.6899999999</v>
+      </c>
+      <c r="O29" t="n">
+        <v>603096.1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>599267.8100000001</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>599256.11</v>
+      </c>
+      <c r="R29" t="n">
+        <v>950363.92</v>
+      </c>
+      <c r="S29" t="n">
+        <v>952125.7</v>
+      </c>
+      <c r="T29" t="n">
+        <v>950651.79</v>
+      </c>
+      <c r="U29" t="n">
+        <v>951645.11</v>
+      </c>
+      <c r="V29" t="n">
+        <v>947086.5699999999</v>
+      </c>
+      <c r="W29" t="n">
+        <v>946968.67</v>
+      </c>
+      <c r="X29" t="n">
+        <v>949292.14</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>951048.1800000001</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>798020.4399999999</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>796692.52</v>
       </c>
     </row>
     <row r="30">
@@ -1652,40 +2908,82 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1214413.21</v>
+        <v>1365604.59</v>
       </c>
       <c r="C30" t="n">
-        <v>1216155.65</v>
+        <v>1369766.56</v>
       </c>
       <c r="D30" t="n">
-        <v>1213995.71</v>
+        <v>1310751.5</v>
       </c>
       <c r="E30" t="n">
-        <v>1215268.34</v>
+        <v>1365864.13</v>
       </c>
       <c r="F30" t="n">
-        <v>1364015.86</v>
+        <v>1364543.41</v>
       </c>
       <c r="G30" t="n">
-        <v>1368243.99</v>
+        <v>1368912</v>
       </c>
       <c r="H30" t="n">
-        <v>1368340.22</v>
+        <v>1366228.35</v>
       </c>
       <c r="I30" t="n">
-        <v>1366826.45</v>
+        <v>1363193.17</v>
       </c>
       <c r="J30" t="n">
-        <v>1364362.93</v>
+        <v>1365139.43</v>
       </c>
       <c r="K30" t="n">
-        <v>1366084.57</v>
+        <v>1369049.53</v>
       </c>
       <c r="L30" t="n">
-        <v>1367066.87</v>
+        <v>1364837.7</v>
       </c>
       <c r="M30" t="n">
-        <v>1365604.59</v>
+        <v>1363577.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1365003.64</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1210982.61</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1126728.24</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1124715.17</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1125601.44</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1245668.61</v>
+      </c>
+      <c r="T30" t="n">
+        <v>948379.34</v>
+      </c>
+      <c r="U30" t="n">
+        <v>948742.92</v>
+      </c>
+      <c r="V30" t="n">
+        <v>947394.89</v>
+      </c>
+      <c r="W30" t="n">
+        <v>948591.87</v>
+      </c>
+      <c r="X30" t="n">
+        <v>949791.03</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>943735.64</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1360687.72</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1362717.63</v>
       </c>
     </row>
     <row r="31">
@@ -1695,237 +2993,422 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>925134.17</v>
+        <v>910513.23</v>
       </c>
       <c r="C31" t="n">
-        <v>925542.4399999999</v>
+        <v>862784.58</v>
       </c>
       <c r="D31" t="n">
-        <v>870614.04</v>
+        <v>828786.79</v>
       </c>
       <c r="E31" t="n">
-        <v>854493.9300000001</v>
+        <v>873745.55</v>
       </c>
       <c r="F31" t="n">
-        <v>926644.8199999999</v>
+        <v>861732.24</v>
       </c>
       <c r="G31" t="n">
-        <v>935577.9</v>
+        <v>935796.8100000001</v>
       </c>
       <c r="H31" t="n">
-        <v>937976.48</v>
+        <v>937305.09</v>
       </c>
       <c r="I31" t="n">
-        <v>937115.73</v>
+        <v>938557.1899999999</v>
       </c>
       <c r="J31" t="n">
-        <v>938610.3100000001</v>
+        <v>939831.9</v>
       </c>
       <c r="K31" t="n">
-        <v>938408.13</v>
+        <v>935965.17</v>
       </c>
       <c r="L31" t="n">
-        <v>939666.11</v>
+        <v>926116.84</v>
       </c>
       <c r="M31" t="n">
-        <v>910513.23</v>
+        <v>884025.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>867294.61</v>
+      </c>
+      <c r="O31" t="n">
+        <v>874347.62</v>
+      </c>
+      <c r="P31" t="n">
+        <v>938958.1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>903173.91</v>
+      </c>
+      <c r="R31" t="n">
+        <v>904374.05</v>
+      </c>
+      <c r="S31" t="n">
+        <v>907763.83</v>
+      </c>
+      <c r="T31" t="n">
+        <v>990400.27</v>
+      </c>
+      <c r="U31" t="n">
+        <v>993792.3100000001</v>
+      </c>
+      <c r="V31" t="n">
+        <v>975060.33</v>
+      </c>
+      <c r="W31" t="n">
+        <v>978976.8</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1093156.72</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1095616.6</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1092417.4</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1096363.92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17717880.06</v>
+        <v>24181429.35</v>
       </c>
       <c r="C32" t="n">
-        <v>17725718.49</v>
+        <v>21607432.21</v>
       </c>
       <c r="D32" t="n">
-        <v>17769651.84</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+        <v>18577470.32</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15532462.26</v>
+      </c>
+      <c r="F32" t="n">
+        <v>14032147.02</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14010954.95</v>
+      </c>
+      <c r="H32" t="n">
+        <v>14036607.51</v>
+      </c>
+      <c r="I32" t="n">
+        <v>14041086.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>12437780.14</v>
+      </c>
+      <c r="K32" t="n">
+        <v>12416582.49</v>
+      </c>
+      <c r="L32" t="n">
+        <v>12437941.31</v>
+      </c>
+      <c r="M32" t="n">
+        <v>12452257.37</v>
+      </c>
+      <c r="N32" t="n">
+        <v>12446617.32</v>
+      </c>
+      <c r="O32" t="n">
+        <v>12468059.61</v>
+      </c>
+      <c r="P32" t="n">
+        <v>12460162.73</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>12422951.34</v>
+      </c>
+      <c r="R32" t="n">
+        <v>12453732.98</v>
+      </c>
+      <c r="S32" t="n">
+        <v>12471611.85</v>
+      </c>
+      <c r="T32" t="n">
+        <v>12454417.81</v>
+      </c>
+      <c r="U32" t="n">
+        <v>12440406.08</v>
+      </c>
+      <c r="V32" t="n">
+        <v>12452704.94</v>
+      </c>
+      <c r="W32" t="n">
+        <v>12414834.43</v>
+      </c>
+      <c r="X32" t="n">
+        <v>12408830.99</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>11446034.13</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>10340871.52</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>10375217.18</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24944544.43</v>
+        <v>4063774.36</v>
       </c>
       <c r="C33" t="n">
-        <v>24951084.52</v>
+        <v>4045870.72</v>
       </c>
       <c r="D33" t="n">
-        <v>24907279.91</v>
+        <v>3893895.69</v>
       </c>
       <c r="E33" t="n">
-        <v>24922874.13</v>
+        <v>4049819.89</v>
       </c>
       <c r="F33" t="n">
-        <v>24910305.57</v>
+        <v>4047283.57</v>
       </c>
       <c r="G33" t="n">
-        <v>24908758.54</v>
+        <v>4046330.4</v>
       </c>
       <c r="H33" t="n">
-        <v>24912822.39</v>
+        <v>4056147.64</v>
       </c>
       <c r="I33" t="n">
-        <v>24914614.25</v>
+        <v>4057189.64</v>
       </c>
       <c r="J33" t="n">
-        <v>24945918.63</v>
+        <v>4054657.46</v>
       </c>
       <c r="K33" t="n">
-        <v>24144267.97</v>
+        <v>4053628.13</v>
       </c>
       <c r="L33" t="n">
-        <v>24153658.03</v>
+        <v>4054869.64</v>
       </c>
       <c r="M33" t="n">
-        <v>24181429.35</v>
+        <v>4053344.85</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4063467.34</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4056584.96</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4065715.49</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4054355.29</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4061154.79</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4059858.59</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4068175.54</v>
+      </c>
+      <c r="U33" t="n">
+        <v>4054208.53</v>
+      </c>
+      <c r="V33" t="n">
+        <v>4069012.56</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4071002.53</v>
+      </c>
+      <c r="X33" t="n">
+        <v>4043317.65</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>4047196.83</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>3394395.87</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>3412029.87</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4062543.59</v>
+        <v>3519044.48</v>
       </c>
       <c r="C34" t="n">
-        <v>4051087.37</v>
+        <v>3428381.11</v>
       </c>
       <c r="D34" t="n">
-        <v>4051344.5</v>
+        <v>3223504.47</v>
       </c>
       <c r="E34" t="n">
-        <v>4048037.09</v>
+        <v>3215755.41</v>
       </c>
       <c r="F34" t="n">
-        <v>4063228.9</v>
+        <v>3079956.33</v>
       </c>
       <c r="G34" t="n">
-        <v>4053912.64</v>
+        <v>3104217.24</v>
       </c>
       <c r="H34" t="n">
-        <v>4055286.03</v>
+        <v>3105215.38</v>
       </c>
       <c r="I34" t="n">
-        <v>4054904.97</v>
+        <v>3029651.09</v>
       </c>
       <c r="J34" t="n">
-        <v>4059341.84</v>
+        <v>3063490.5</v>
       </c>
       <c r="K34" t="n">
-        <v>4056880.72</v>
+        <v>3072084.37</v>
       </c>
       <c r="L34" t="n">
-        <v>4046618.93</v>
+        <v>3071877.16</v>
       </c>
       <c r="M34" t="n">
-        <v>4063774.36</v>
+        <v>3102327.41</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3104858.61</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3117198.8</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3120926.79</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3144456.16</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3156182.53</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3166715.73</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3262576.39</v>
+      </c>
+      <c r="U34" t="n">
+        <v>3187829.43</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3131946.52</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3140620.11</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3164224.77</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3167586.67</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>3030675.72</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3032972.06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3777704.59</v>
+        <v>105571334.49</v>
       </c>
       <c r="C35" t="n">
-        <v>4575123.11</v>
+        <v>102851433.27</v>
       </c>
       <c r="D35" t="n">
-        <v>3776837.02</v>
+        <v>96705134.13</v>
       </c>
       <c r="E35" t="n">
-        <v>3520031.85</v>
+        <v>96472662.36</v>
       </c>
       <c r="F35" t="n">
-        <v>3556079.15</v>
+        <v>95478646.36</v>
       </c>
       <c r="G35" t="n">
-        <v>3560697.48</v>
+        <v>96230734.36</v>
       </c>
       <c r="H35" t="n">
-        <v>3557330.62</v>
+        <v>96261676.84</v>
       </c>
       <c r="I35" t="n">
-        <v>3532236.78</v>
+        <v>96948834.93000001</v>
       </c>
       <c r="J35" t="n">
-        <v>3522547.23</v>
+        <v>98031695.92</v>
       </c>
       <c r="K35" t="n">
-        <v>3550454.04</v>
+        <v>98306699.81999999</v>
       </c>
       <c r="L35" t="n">
-        <v>3517807.02</v>
+        <v>98300069.01000001</v>
       </c>
       <c r="M35" t="n">
-        <v>3519044.48</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>124664251.34</v>
-      </c>
-      <c r="C36" t="n">
-        <v>109802954.64</v>
-      </c>
-      <c r="D36" t="n">
-        <v>124635621.79</v>
-      </c>
-      <c r="E36" t="n">
-        <v>105600955.52</v>
-      </c>
-      <c r="F36" t="n">
-        <v>106682374.44</v>
-      </c>
-      <c r="G36" t="n">
-        <v>106820924.46</v>
-      </c>
-      <c r="H36" t="n">
-        <v>106719918.59</v>
-      </c>
-      <c r="I36" t="n">
-        <v>105967103.27</v>
-      </c>
-      <c r="J36" t="n">
-        <v>105676416.94</v>
-      </c>
-      <c r="K36" t="n">
-        <v>106513621.06</v>
-      </c>
-      <c r="L36" t="n">
-        <v>105534210.62</v>
-      </c>
-      <c r="M36" t="n">
-        <v>105571334.49</v>
+        <v>99274477.02</v>
+      </c>
+      <c r="N35" t="n">
+        <v>99355475.66</v>
+      </c>
+      <c r="O35" t="n">
+        <v>99750361.68000001</v>
+      </c>
+      <c r="P35" t="n">
+        <v>99869657.39</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>100622597.24</v>
+      </c>
+      <c r="R35" t="n">
+        <v>100997840.88</v>
+      </c>
+      <c r="S35" t="n">
+        <v>101334903.38</v>
+      </c>
+      <c r="T35" t="n">
+        <v>101139867.99</v>
+      </c>
+      <c r="U35" t="n">
+        <v>98822712.26000001</v>
+      </c>
+      <c r="V35" t="n">
+        <v>97090342.02</v>
+      </c>
+      <c r="W35" t="n">
+        <v>97359223.36</v>
+      </c>
+      <c r="X35" t="n">
+        <v>98090968.01000001</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>95027600.12</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>90920271.73999999</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>90989161.78</v>
       </c>
     </row>
   </sheetData>
